--- a/5조_WBS.xlsx
+++ b/5조_WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\나\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47685C7-2CB5-4E5B-9381-82FE09F9B7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F02A3BE-3D67-4863-B49C-37A024A1CB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9810" yWindow="60" windowWidth="18810" windowHeight="12885" xr2:uid="{AF6A94B1-3109-43EE-9CFC-8B507A9F83DE}"/>
+    <workbookView xWindow="3750" yWindow="690" windowWidth="18795" windowHeight="11925" xr2:uid="{AF6A94B1-3109-43EE-9CFC-8B507A9F83DE}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>태스크</t>
   </si>
@@ -337,6 +337,10 @@
   </si>
   <si>
     <t>작업 중</t>
+  </si>
+  <si>
+    <t>2022.11.11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1297,7 +1301,7 @@
   <dimension ref="A1:AK819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.95" customHeight="1"/>
@@ -1812,12 +1816,14 @@
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="F10" s="17"/>
       <c r="G10" s="18">
         <v>0</v>
@@ -1834,7 +1840,9 @@
       <c r="Q10" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="20"/>
+      <c r="R10" s="62" t="s">
+        <v>61</v>
+      </c>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
@@ -1903,9 +1911,15 @@
         <v>17</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="C12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="F12" s="17"/>
       <c r="G12" s="18">
         <v>0</v>
@@ -1920,7 +1934,9 @@
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
+      <c r="R12" s="62" t="s">
+        <v>61</v>
+      </c>
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
@@ -1946,8 +1962,12 @@
         <v>18</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
       <c r="G13" s="18">
@@ -1963,7 +1983,9 @@
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
+      <c r="R13" s="62" t="s">
+        <v>61</v>
+      </c>
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>

--- a/5조_WBS.xlsx
+++ b/5조_WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\나\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F02A3BE-3D67-4863-B49C-37A024A1CB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE5006B-8438-4974-A44E-FC9F1A6978C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="690" windowWidth="18795" windowHeight="11925" xr2:uid="{AF6A94B1-3109-43EE-9CFC-8B507A9F83DE}"/>
+    <workbookView xWindow="7755" yWindow="3465" windowWidth="14370" windowHeight="10860" xr2:uid="{AF6A94B1-3109-43EE-9CFC-8B507A9F83DE}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
   <si>
     <t>태스크</t>
   </si>
@@ -340,6 +340,10 @@
   </si>
   <si>
     <t>2022.11.11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.11.14</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1300,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600A789E-3AA6-417F-A786-97DC5D5477DF}">
   <dimension ref="A1:AK819"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.95" customHeight="1"/>
@@ -1963,12 +1967,14 @@
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="18">
         <v>0</v>
@@ -2011,8 +2017,12 @@
         <v>19</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
       <c r="G14" s="18">

--- a/5조_WBS.xlsx
+++ b/5조_WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\나\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE5006B-8438-4974-A44E-FC9F1A6978C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F66108-E303-469C-89F7-86076EE84C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="3465" windowWidth="14370" windowHeight="10860" xr2:uid="{AF6A94B1-3109-43EE-9CFC-8B507A9F83DE}"/>
+    <workbookView xWindow="8670" yWindow="945" windowWidth="18795" windowHeight="11925" xr2:uid="{AF6A94B1-3109-43EE-9CFC-8B507A9F83DE}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
   <si>
     <t>태스크</t>
   </si>
@@ -1304,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600A789E-3AA6-417F-A786-97DC5D5477DF}">
   <dimension ref="A1:AK819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.95" customHeight="1"/>
@@ -1478,12 +1478,18 @@
         <v>8</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="F3" s="8"/>
       <c r="G3" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
@@ -1532,7 +1538,7 @@
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="20"/>
@@ -1572,12 +1578,18 @@
         <v>10</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
@@ -1626,7 +1638,7 @@
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="20"/>
@@ -1725,8 +1737,12 @@
         <v>13</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9">
@@ -1779,7 +1795,7 @@
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="20"/>
@@ -1830,7 +1846,7 @@
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="20"/>
@@ -1872,8 +1888,12 @@
         <v>16</v>
       </c>
       <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="E11" s="26"/>
       <c r="F11" s="27"/>
       <c r="G11" s="28">
@@ -1926,7 +1946,7 @@
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="20"/>
@@ -1977,7 +1997,7 @@
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="20"/>
@@ -2041,7 +2061,9 @@
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
+      <c r="U14" s="62" t="s">
+        <v>61</v>
+      </c>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
@@ -2107,8 +2129,12 @@
         <v>21</v>
       </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="E16" s="16"/>
       <c r="F16" s="17"/>
       <c r="G16" s="18">
@@ -2127,7 +2153,9 @@
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
+      <c r="U16" s="62" t="s">
+        <v>61</v>
+      </c>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>

--- a/5조_WBS.xlsx
+++ b/5조_WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F66108-E303-469C-89F7-86076EE84C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA79086-CE85-4004-B30A-AFAB086D9116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8670" yWindow="945" windowWidth="18795" windowHeight="11925" xr2:uid="{AF6A94B1-3109-43EE-9CFC-8B507A9F83DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AF6A94B1-3109-43EE-9CFC-8B507A9F83DE}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="120">
   <si>
     <t>태스크</t>
   </si>
@@ -176,14 +176,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   설문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>       설문 목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -195,72 +187,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">      회원정보 상세</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      회원정보 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      회원정보 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>      설문 상세</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      설문 등록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      설문 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      설문 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이용자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   회원 정보</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      회원가입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      아이디 찾기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      비밀번호 찾기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>      설문 참여</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      내 설문보기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   마이페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      회원정보 수정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      회원탈퇴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      비밀번호 변경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -313,10 +240,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
   </si>
   <si>
@@ -344,6 +267,286 @@
   </si>
   <si>
     <t>2022.11.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.11.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   회원가입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   아이디 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   비밀번호 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   시스템 종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      회원 대여 목록 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   도서 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      도서 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         도서 상세 보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         도서 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         도서 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         대여 상세보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         회원정보 상세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            회원정보 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            회원정보 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      도서 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         신청 도서 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         신규 도서 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            신청 도서 상세보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">               신청 도서 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">               신청 도서 거절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   건의사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      건의사항 상세보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         건의사항 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         건의사항 확인 체크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         건의사항 댓글 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         건의사항 댓글 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   공지사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      공지사항 상세보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         공지사항 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      공지사항 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         공지사항 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   내 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      내 정보 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         주소 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         전화번호 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         비밀번호 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         취소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      회원 탈퇴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   도서 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>      도서 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             도서 예약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             도서 대여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>      도서 검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         도서명 검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         저자명 검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         출판사 검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             검색 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             도서 신청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   내 서재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>      대여 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>      예약 현황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>      신청 현황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>      내 건의 사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         반납 기한 연장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         예약 취소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         신청 취소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         건의사항 상세보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             건의사항 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             건의사항 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      건의사항 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         건의사항 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남욱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최현식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         반납 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영광</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유범석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +644,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +685,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFE5"/>
         <bgColor rgb="FF5B9BD5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -889,9 +1098,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -908,9 +1114,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -937,14 +1140,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -987,6 +1187,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1302,86 +1511,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600A789E-3AA6-417F-A786-97DC5D5477DF}">
-  <dimension ref="A1:AK819"/>
+  <dimension ref="A1:AK866"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="55" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" style="55"/>
-    <col min="6" max="7" width="8.5703125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="53" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" style="53"/>
+    <col min="6" max="7" width="8.5703125" style="53" customWidth="1"/>
     <col min="8" max="37" width="2.42578125" style="1" customWidth="1"/>
     <col min="38" max="16384" width="17.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="16.5" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="67"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="64"/>
     </row>
     <row r="2" spans="1:37" ht="16.5" customHeight="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="64"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="2">
         <v>1</v>
       </c>
@@ -1479,13 +1688,13 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="9">
@@ -1497,7 +1706,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="60"/>
+      <c r="N3" s="74"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -1526,15 +1735,17 @@
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="C4" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="18">
@@ -1546,9 +1757,7 @@
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
-      <c r="N4" s="61" t="s">
-        <v>61</v>
-      </c>
+      <c r="N4" s="75"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
@@ -1579,13 +1788,13 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9">
@@ -1597,10 +1806,10 @@
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
       <c r="T5" s="20"/>
@@ -1626,15 +1835,17 @@
       <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="C6" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="18">
@@ -1646,16 +1857,10 @@
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="62" t="s">
-        <v>61</v>
-      </c>
+      <c r="N6" s="58"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
@@ -1681,15 +1886,17 @@
       <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="C7" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="18">
@@ -1701,15 +1908,9 @@
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
-      <c r="N7" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="62" t="s">
-        <v>61</v>
-      </c>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
@@ -1738,10 +1939,10 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
@@ -1754,17 +1955,17 @@
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="76"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
@@ -1783,15 +1984,17 @@
       <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="C9" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="18">
@@ -1806,9 +2009,7 @@
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
-      <c r="Q9" s="62" t="s">
-        <v>61</v>
-      </c>
+      <c r="Q9" s="74"/>
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
@@ -1834,15 +2035,17 @@
       <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="C10" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="18">
@@ -1857,12 +2060,8 @@
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
-      <c r="Q10" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10" s="62" t="s">
-        <v>61</v>
-      </c>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
@@ -1889,15 +2088,17 @@
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="26"/>
+        <v>47</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="F11" s="27"/>
       <c r="G11" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="20"/>
@@ -1912,9 +2113,9 @@
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
@@ -1934,15 +2135,17 @@
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="C12" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="18">
@@ -1958,9 +2161,7 @@
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
-      <c r="R12" s="62" t="s">
-        <v>61</v>
-      </c>
+      <c r="R12" s="74"/>
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
@@ -1985,15 +2186,17 @@
       <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="18">
@@ -2009,9 +2212,7 @@
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
-      <c r="R13" s="62" t="s">
-        <v>61</v>
-      </c>
+      <c r="R13" s="74"/>
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
@@ -2036,17 +2237,21 @@
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="C14" s="15" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="16"/>
+        <v>49</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="F14" s="17"/>
       <c r="G14" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="20"/>
@@ -2061,11 +2266,9 @@
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
-      <c r="U14" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
@@ -2128,12 +2331,14 @@
       <c r="A16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="C16" s="15" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="17"/>
@@ -2153,11 +2358,9 @@
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
-      <c r="U16" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
@@ -2264,7 +2467,6 @@
         <v>24</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
@@ -2478,7 +2680,9 @@
       <c r="A24" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="41"/>
+      <c r="B24" s="41" t="s">
+        <v>114</v>
+      </c>
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -2521,7 +2725,9 @@
       <c r="A25" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="41"/>
+      <c r="B25" s="41" t="s">
+        <v>114</v>
+      </c>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -2564,7 +2770,9 @@
       <c r="A26" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="41"/>
+      <c r="B26" s="41" t="s">
+        <v>114</v>
+      </c>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -2604,17 +2812,17 @@
       <c r="AK26" s="21"/>
     </row>
     <row r="27" spans="1:37" ht="16.5">
-      <c r="A27" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="42"/>
+      <c r="A27" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>114</v>
+      </c>
       <c r="C27" s="15"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="18">
-        <v>0</v>
-      </c>
+      <c r="G27" s="18"/>
       <c r="H27" s="19"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
@@ -2648,16 +2856,16 @@
     </row>
     <row r="28" spans="1:37" ht="16.5">
       <c r="A28" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="42"/>
+        <v>52</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>114</v>
+      </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="18">
-        <v>0</v>
-      </c>
+      <c r="G28" s="18"/>
       <c r="H28" s="19"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
@@ -2690,17 +2898,17 @@
       <c r="AK28" s="21"/>
     </row>
     <row r="29" spans="1:37" ht="16.5">
-      <c r="A29" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39">
-        <v>0</v>
-      </c>
+      <c r="A29" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
       <c r="H29" s="19"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -2733,18 +2941,20 @@
       <c r="AK29" s="21"/>
     </row>
     <row r="30" spans="1:37" ht="16.5">
-      <c r="A30" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="41"/>
+      <c r="A30" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>114</v>
+      </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="17"/>
       <c r="G30" s="18">
         <v>0</v>
       </c>
-      <c r="H30" s="45"/>
+      <c r="H30" s="19"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
@@ -2776,36 +2986,36 @@
       <c r="AK30" s="21"/>
     </row>
     <row r="31" spans="1:37" ht="16.5">
-      <c r="A31" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18">
+      <c r="A31" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39">
         <v>0</v>
       </c>
-      <c r="H31" s="45"/>
+      <c r="H31" s="19"/>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
       <c r="AC31" s="20"/>
@@ -2819,36 +3029,38 @@
       <c r="AK31" s="21"/>
     </row>
     <row r="32" spans="1:37" ht="16.5">
-      <c r="A32" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="41"/>
+      <c r="A32" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>114</v>
+      </c>
       <c r="C32" s="15"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="17"/>
       <c r="G32" s="18">
         <v>0</v>
       </c>
-      <c r="H32" s="45"/>
+      <c r="H32" s="44"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
       <c r="AC32" s="20"/>
@@ -2862,36 +3074,38 @@
       <c r="AK32" s="21"/>
     </row>
     <row r="33" spans="1:37" ht="16.5">
-      <c r="A33" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="41"/>
+      <c r="A33" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>114</v>
+      </c>
       <c r="C33" s="15"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
       <c r="F33" s="17"/>
       <c r="G33" s="18">
         <v>0</v>
       </c>
-      <c r="H33" s="19"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
       <c r="AC33" s="20"/>
@@ -2905,36 +3119,38 @@
       <c r="AK33" s="21"/>
     </row>
     <row r="34" spans="1:37" ht="16.5">
-      <c r="A34" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="41"/>
+      <c r="A34" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>114</v>
+      </c>
       <c r="C34" s="15"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
       <c r="F34" s="17"/>
       <c r="G34" s="18">
         <v>0</v>
       </c>
-      <c r="H34" s="19"/>
+      <c r="H34" s="44"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
       <c r="AC34" s="20"/>
@@ -2948,13 +3164,15 @@
       <c r="AK34" s="21"/>
     </row>
     <row r="35" spans="1:37" ht="16.5">
-      <c r="A35" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="41"/>
+      <c r="A35" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>114</v>
+      </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="17"/>
       <c r="G35" s="18">
         <v>0</v>
@@ -2991,13 +3209,15 @@
       <c r="AK35" s="21"/>
     </row>
     <row r="36" spans="1:37" ht="16.5">
-      <c r="A36" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="41"/>
+      <c r="A36" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>114</v>
+      </c>
       <c r="C36" s="15"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
       <c r="F36" s="17"/>
       <c r="G36" s="18">
         <v>0</v>
@@ -3034,10 +3254,12 @@
       <c r="AK36" s="21"/>
     </row>
     <row r="37" spans="1:37" ht="16.5">
-      <c r="A37" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="42"/>
+      <c r="A37" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>114</v>
+      </c>
       <c r="C37" s="15"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
@@ -3077,17 +3299,17 @@
       <c r="AK37" s="21"/>
     </row>
     <row r="38" spans="1:37" ht="16.5">
-      <c r="A38" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="41"/>
+      <c r="A38" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>115</v>
+      </c>
       <c r="C38" s="15"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
       <c r="F38" s="17"/>
-      <c r="G38" s="18">
-        <v>0</v>
-      </c>
+      <c r="G38" s="18"/>
       <c r="H38" s="19"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
@@ -3120,17 +3342,17 @@
       <c r="AK38" s="21"/>
     </row>
     <row r="39" spans="1:37" ht="16.5">
-      <c r="A39" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="41"/>
+      <c r="A39" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>115</v>
+      </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
       <c r="F39" s="17"/>
-      <c r="G39" s="18">
-        <v>0</v>
-      </c>
+      <c r="G39" s="18"/>
       <c r="H39" s="19"/>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
@@ -3163,13 +3385,15 @@
       <c r="AK39" s="21"/>
     </row>
     <row r="40" spans="1:37" ht="16.5">
-      <c r="A40" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="41"/>
+      <c r="A40" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>118</v>
+      </c>
       <c r="C40" s="15"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
       <c r="F40" s="17"/>
       <c r="G40" s="18">
         <v>0</v>
@@ -3205,16 +3429,18 @@
       <c r="AJ40" s="20"/>
       <c r="AK40" s="21"/>
     </row>
-    <row r="41" spans="1:37" ht="17.25">
-      <c r="A41" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="39">
+    <row r="41" spans="1:37" ht="16.5">
+      <c r="A41" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18">
         <v>0</v>
       </c>
       <c r="H41" s="19"/>
@@ -3249,13 +3475,15 @@
       <c r="AK41" s="21"/>
     </row>
     <row r="42" spans="1:37" ht="16.5">
-      <c r="A42" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="41"/>
+      <c r="A42" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>118</v>
+      </c>
       <c r="C42" s="15"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
       <c r="F42" s="17"/>
       <c r="G42" s="18">
         <v>0</v>
@@ -3292,13 +3520,15 @@
       <c r="AK42" s="21"/>
     </row>
     <row r="43" spans="1:37" ht="16.5">
-      <c r="A43" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="41"/>
+      <c r="A43" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>118</v>
+      </c>
       <c r="C43" s="15"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
       <c r="F43" s="17"/>
       <c r="G43" s="18">
         <v>0</v>
@@ -3336,12 +3566,14 @@
     </row>
     <row r="44" spans="1:37" ht="16.5">
       <c r="A44" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="41"/>
+        <v>60</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>118</v>
+      </c>
       <c r="C44" s="15"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
       <c r="F44" s="17"/>
       <c r="G44" s="18">
         <v>0</v>
@@ -3379,16 +3611,16 @@
     </row>
     <row r="45" spans="1:37" ht="16.5">
       <c r="A45" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="41"/>
+        <v>65</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>118</v>
+      </c>
       <c r="C45" s="15"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
       <c r="F45" s="17"/>
-      <c r="G45" s="18">
-        <v>0</v>
-      </c>
+      <c r="G45" s="18"/>
       <c r="H45" s="19"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
@@ -3422,16 +3654,16 @@
     </row>
     <row r="46" spans="1:37" ht="16.5">
       <c r="A46" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="41"/>
+        <v>66</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>113</v>
+      </c>
       <c r="C46" s="15"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
       <c r="F46" s="17"/>
-      <c r="G46" s="18">
-        <v>0</v>
-      </c>
+      <c r="G46" s="18"/>
       <c r="H46" s="19"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
@@ -3464,17 +3696,17 @@
       <c r="AK46" s="21"/>
     </row>
     <row r="47" spans="1:37" ht="16.5">
-      <c r="A47" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="42"/>
+      <c r="A47" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>113</v>
+      </c>
       <c r="C47" s="15"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="17"/>
-      <c r="G47" s="18">
-        <v>0</v>
-      </c>
+      <c r="G47" s="18"/>
       <c r="H47" s="19"/>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
@@ -3508,16 +3740,16 @@
     </row>
     <row r="48" spans="1:37" ht="16.5">
       <c r="A48" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="42"/>
+        <v>69</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>113</v>
+      </c>
       <c r="C48" s="15"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="18">
-        <v>0</v>
-      </c>
+      <c r="G48" s="18"/>
       <c r="H48" s="19"/>
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
@@ -3551,16 +3783,16 @@
     </row>
     <row r="49" spans="1:37" ht="16.5">
       <c r="A49" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="42"/>
+        <v>70</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>113</v>
+      </c>
       <c r="C49" s="15"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="18">
-        <v>0</v>
-      </c>
+      <c r="G49" s="18"/>
       <c r="H49" s="19"/>
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
@@ -3594,9 +3826,11 @@
     </row>
     <row r="50" spans="1:37" ht="16.5">
       <c r="A50" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="42"/>
+        <v>67</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>118</v>
+      </c>
       <c r="C50" s="15"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
@@ -3634,18 +3868,18 @@
       <c r="AK50" s="21"/>
     </row>
     <row r="51" spans="1:37" ht="16.5">
-      <c r="A51" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="41"/>
+      <c r="A51" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>117</v>
+      </c>
       <c r="C51" s="15"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="17"/>
-      <c r="G51" s="18">
-        <v>0</v>
-      </c>
-      <c r="H51" s="45"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
@@ -3678,16 +3912,16 @@
     </row>
     <row r="52" spans="1:37" ht="16.5">
       <c r="A52" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52" s="41"/>
+        <v>72</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>117</v>
+      </c>
       <c r="C52" s="15"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
       <c r="F52" s="17"/>
-      <c r="G52" s="18">
-        <v>0</v>
-      </c>
+      <c r="G52" s="18"/>
       <c r="H52" s="19"/>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
@@ -3721,16 +3955,16 @@
     </row>
     <row r="53" spans="1:37" ht="16.5">
       <c r="A53" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="41"/>
+        <v>73</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>117</v>
+      </c>
       <c r="C53" s="15"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
       <c r="F53" s="17"/>
-      <c r="G53" s="18">
-        <v>0</v>
-      </c>
+      <c r="G53" s="18"/>
       <c r="H53" s="19"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
@@ -3764,12 +3998,14 @@
     </row>
     <row r="54" spans="1:37" ht="16.5">
       <c r="A54" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="41"/>
+        <v>74</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>117</v>
+      </c>
       <c r="C54" s="15"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
       <c r="F54" s="17"/>
       <c r="G54" s="18"/>
       <c r="H54" s="19"/>
@@ -3805,16 +4041,16 @@
     </row>
     <row r="55" spans="1:37" ht="16.5">
       <c r="A55" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="41"/>
+        <v>75</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>117</v>
+      </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="17"/>
-      <c r="G55" s="18">
-        <v>0</v>
-      </c>
+      <c r="G55" s="18"/>
       <c r="H55" s="19"/>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
@@ -3847,17 +4083,17 @@
       <c r="AK55" s="21"/>
     </row>
     <row r="56" spans="1:37" ht="16.5">
-      <c r="A56" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="33">
-        <v>0</v>
-      </c>
+      <c r="A56" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="18"/>
       <c r="H56" s="19"/>
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
@@ -3890,17 +4126,17 @@
       <c r="AK56" s="21"/>
     </row>
     <row r="57" spans="1:37" ht="16.5">
-      <c r="A57" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="14"/>
+      <c r="A57" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>113</v>
+      </c>
       <c r="C57" s="15"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
       <c r="F57" s="17"/>
-      <c r="G57" s="18">
-        <v>0</v>
-      </c>
+      <c r="G57" s="18"/>
       <c r="H57" s="19"/>
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
@@ -3934,2343 +4170,4296 @@
     </row>
     <row r="58" spans="1:37" ht="16.5">
       <c r="A58" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="14"/>
+        <v>78</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>113</v>
+      </c>
       <c r="C58" s="15"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
       <c r="F58" s="17"/>
-      <c r="G58" s="18">
+      <c r="G58" s="18"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="20"/>
+      <c r="AA58" s="20"/>
+      <c r="AB58" s="20"/>
+      <c r="AC58" s="20"/>
+      <c r="AD58" s="20"/>
+      <c r="AE58" s="20"/>
+      <c r="AF58" s="20"/>
+      <c r="AG58" s="20"/>
+      <c r="AH58" s="20"/>
+      <c r="AI58" s="20"/>
+      <c r="AJ58" s="20"/>
+      <c r="AK58" s="21"/>
+    </row>
+    <row r="59" spans="1:37" ht="16.5">
+      <c r="A59" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="59"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="18"/>
+    </row>
+    <row r="60" spans="1:37" ht="16.5">
+      <c r="A60" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="59"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="18"/>
+    </row>
+    <row r="61" spans="1:37" ht="16.5">
+      <c r="A61" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="59"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="18"/>
+    </row>
+    <row r="62" spans="1:37" ht="17.25">
+      <c r="A62" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="39">
         <v>0</v>
       </c>
-      <c r="H58" s="52"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="53"/>
-      <c r="P58" s="53"/>
-      <c r="Q58" s="53"/>
-      <c r="R58" s="53"/>
-      <c r="S58" s="53"/>
-      <c r="T58" s="53"/>
-      <c r="U58" s="53"/>
-      <c r="V58" s="53"/>
-      <c r="W58" s="53"/>
-      <c r="X58" s="53"/>
-      <c r="Y58" s="53"/>
-      <c r="Z58" s="53"/>
-      <c r="AA58" s="53"/>
-      <c r="AB58" s="53"/>
-      <c r="AC58" s="53"/>
-      <c r="AD58" s="53"/>
-      <c r="AE58" s="53"/>
-      <c r="AF58" s="53"/>
-      <c r="AG58" s="53"/>
-      <c r="AH58" s="53"/>
-      <c r="AI58" s="53"/>
-      <c r="AJ58" s="53"/>
-      <c r="AK58" s="54"/>
-    </row>
-    <row r="59" spans="1:37" ht="12.75">
-      <c r="F59" s="56"/>
-      <c r="G59" s="57"/>
-    </row>
-    <row r="60" spans="1:37" ht="12.75">
-      <c r="F60" s="56"/>
-    </row>
-    <row r="61" spans="1:37" ht="12.75">
-      <c r="F61" s="56"/>
-    </row>
-    <row r="62" spans="1:37" ht="12.75">
-      <c r="F62" s="56"/>
-    </row>
-    <row r="63" spans="1:37" ht="12.75">
-      <c r="F63" s="56"/>
-    </row>
-    <row r="64" spans="1:37" ht="12.75">
-      <c r="F64" s="56"/>
-    </row>
-    <row r="65" spans="1:6" ht="12.75">
-      <c r="F65" s="56"/>
-    </row>
-    <row r="66" spans="1:6" ht="12.75">
-      <c r="F66" s="56"/>
-    </row>
-    <row r="67" spans="1:6" ht="12.75">
-      <c r="F67" s="56"/>
-    </row>
-    <row r="68" spans="1:6" ht="12.75">
-      <c r="F68" s="56"/>
-    </row>
-    <row r="69" spans="1:6" ht="12.75">
-      <c r="F69" s="56"/>
-    </row>
-    <row r="70" spans="1:6" ht="12.75">
-      <c r="F70" s="56"/>
-    </row>
-    <row r="71" spans="1:6" ht="12.75">
-      <c r="F71" s="56"/>
-    </row>
-    <row r="72" spans="1:6" ht="12.75">
-      <c r="F72" s="56"/>
-    </row>
-    <row r="73" spans="1:6" ht="12.75">
-      <c r="F73" s="56"/>
-    </row>
-    <row r="74" spans="1:6" ht="12.75">
-      <c r="A74" s="58"/>
-      <c r="F74" s="56"/>
-    </row>
-    <row r="75" spans="1:6" ht="12.75">
-      <c r="A75" s="58" t="s">
+      <c r="H62" s="19"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="20"/>
+      <c r="AA62" s="20"/>
+      <c r="AB62" s="20"/>
+      <c r="AC62" s="20"/>
+      <c r="AD62" s="20"/>
+      <c r="AE62" s="20"/>
+      <c r="AF62" s="20"/>
+      <c r="AG62" s="20"/>
+      <c r="AH62" s="20"/>
+      <c r="AI62" s="20"/>
+      <c r="AJ62" s="20"/>
+      <c r="AK62" s="21"/>
+    </row>
+    <row r="63" spans="1:37" ht="16.5">
+      <c r="A63" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="18">
+        <v>0</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20"/>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20"/>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="20"/>
+      <c r="AA63" s="20"/>
+      <c r="AB63" s="20"/>
+      <c r="AC63" s="20"/>
+      <c r="AD63" s="20"/>
+      <c r="AE63" s="20"/>
+      <c r="AF63" s="20"/>
+      <c r="AG63" s="20"/>
+      <c r="AH63" s="20"/>
+      <c r="AI63" s="20"/>
+      <c r="AJ63" s="20"/>
+      <c r="AK63" s="21"/>
+    </row>
+    <row r="64" spans="1:37" ht="16.5">
+      <c r="A64" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="18">
+        <v>0</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="20"/>
+      <c r="AA64" s="20"/>
+      <c r="AB64" s="20"/>
+      <c r="AC64" s="20"/>
+      <c r="AD64" s="20"/>
+      <c r="AE64" s="20"/>
+      <c r="AF64" s="20"/>
+      <c r="AG64" s="20"/>
+      <c r="AH64" s="20"/>
+      <c r="AI64" s="20"/>
+      <c r="AJ64" s="20"/>
+      <c r="AK64" s="21"/>
+    </row>
+    <row r="65" spans="1:37" ht="16.5">
+      <c r="A65" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18">
+        <v>0</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="20"/>
+      <c r="AA65" s="20"/>
+      <c r="AB65" s="20"/>
+      <c r="AC65" s="20"/>
+      <c r="AD65" s="20"/>
+      <c r="AE65" s="20"/>
+      <c r="AF65" s="20"/>
+      <c r="AG65" s="20"/>
+      <c r="AH65" s="20"/>
+      <c r="AI65" s="20"/>
+      <c r="AJ65" s="20"/>
+      <c r="AK65" s="21"/>
+    </row>
+    <row r="66" spans="1:37" ht="16.5">
+      <c r="A66" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="18">
+        <v>0</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="20"/>
+      <c r="AA66" s="20"/>
+      <c r="AB66" s="20"/>
+      <c r="AC66" s="20"/>
+      <c r="AD66" s="20"/>
+      <c r="AE66" s="20"/>
+      <c r="AF66" s="20"/>
+      <c r="AG66" s="20"/>
+      <c r="AH66" s="20"/>
+      <c r="AI66" s="20"/>
+      <c r="AJ66" s="20"/>
+      <c r="AK66" s="21"/>
+    </row>
+    <row r="67" spans="1:37" ht="16.5">
+      <c r="A67" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="20"/>
+      <c r="AA67" s="20"/>
+      <c r="AB67" s="20"/>
+      <c r="AC67" s="20"/>
+      <c r="AD67" s="20"/>
+      <c r="AE67" s="20"/>
+      <c r="AF67" s="20"/>
+      <c r="AG67" s="20"/>
+      <c r="AH67" s="20"/>
+      <c r="AI67" s="20"/>
+      <c r="AJ67" s="20"/>
+      <c r="AK67" s="21"/>
+    </row>
+    <row r="68" spans="1:37" ht="16.5">
+      <c r="A68" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="20"/>
+      <c r="X68" s="20"/>
+      <c r="Y68" s="20"/>
+      <c r="Z68" s="20"/>
+      <c r="AA68" s="20"/>
+      <c r="AB68" s="20"/>
+      <c r="AC68" s="20"/>
+      <c r="AD68" s="20"/>
+      <c r="AE68" s="20"/>
+      <c r="AF68" s="20"/>
+      <c r="AG68" s="20"/>
+      <c r="AH68" s="20"/>
+      <c r="AI68" s="20"/>
+      <c r="AJ68" s="20"/>
+      <c r="AK68" s="21"/>
+    </row>
+    <row r="69" spans="1:37" ht="16.5">
+      <c r="A69" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="20"/>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="20"/>
+      <c r="AA69" s="20"/>
+      <c r="AB69" s="20"/>
+      <c r="AC69" s="20"/>
+      <c r="AD69" s="20"/>
+      <c r="AE69" s="20"/>
+      <c r="AF69" s="20"/>
+      <c r="AG69" s="20"/>
+      <c r="AH69" s="20"/>
+      <c r="AI69" s="20"/>
+      <c r="AJ69" s="20"/>
+      <c r="AK69" s="21"/>
+    </row>
+    <row r="70" spans="1:37" ht="16.5">
+      <c r="A70" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="20"/>
+      <c r="W70" s="20"/>
+      <c r="X70" s="20"/>
+      <c r="Y70" s="20"/>
+      <c r="Z70" s="20"/>
+      <c r="AA70" s="20"/>
+      <c r="AB70" s="20"/>
+      <c r="AC70" s="20"/>
+      <c r="AD70" s="20"/>
+      <c r="AE70" s="20"/>
+      <c r="AF70" s="20"/>
+      <c r="AG70" s="20"/>
+      <c r="AH70" s="20"/>
+      <c r="AI70" s="20"/>
+      <c r="AJ70" s="20"/>
+      <c r="AK70" s="21"/>
+    </row>
+    <row r="71" spans="1:37" ht="16.5">
+      <c r="A71" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="20"/>
+      <c r="AA71" s="20"/>
+      <c r="AB71" s="20"/>
+      <c r="AC71" s="20"/>
+      <c r="AD71" s="20"/>
+      <c r="AE71" s="20"/>
+      <c r="AF71" s="20"/>
+      <c r="AG71" s="20"/>
+      <c r="AH71" s="20"/>
+      <c r="AI71" s="20"/>
+      <c r="AJ71" s="20"/>
+      <c r="AK71" s="21"/>
+    </row>
+    <row r="72" spans="1:37" ht="16.5">
+      <c r="A72" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="18">
+        <v>0</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="20"/>
+      <c r="W72" s="20"/>
+      <c r="X72" s="20"/>
+      <c r="Y72" s="20"/>
+      <c r="Z72" s="20"/>
+      <c r="AA72" s="20"/>
+      <c r="AB72" s="20"/>
+      <c r="AC72" s="20"/>
+      <c r="AD72" s="20"/>
+      <c r="AE72" s="20"/>
+      <c r="AF72" s="20"/>
+      <c r="AG72" s="20"/>
+      <c r="AH72" s="20"/>
+      <c r="AI72" s="20"/>
+      <c r="AJ72" s="20"/>
+      <c r="AK72" s="21"/>
+    </row>
+    <row r="73" spans="1:37" ht="16.5">
+      <c r="A73" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="18">
+        <v>0</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
+      <c r="U73" s="20"/>
+      <c r="V73" s="20"/>
+      <c r="W73" s="20"/>
+      <c r="X73" s="20"/>
+      <c r="Y73" s="20"/>
+      <c r="Z73" s="20"/>
+      <c r="AA73" s="20"/>
+      <c r="AB73" s="20"/>
+      <c r="AC73" s="20"/>
+      <c r="AD73" s="20"/>
+      <c r="AE73" s="20"/>
+      <c r="AF73" s="20"/>
+      <c r="AG73" s="20"/>
+      <c r="AH73" s="20"/>
+      <c r="AI73" s="20"/>
+      <c r="AJ73" s="20"/>
+      <c r="AK73" s="21"/>
+    </row>
+    <row r="74" spans="1:37" ht="16.5">
+      <c r="A74" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F75" s="56"/>
-    </row>
-    <row r="76" spans="1:6" ht="12.75">
-      <c r="A76" s="58" t="s">
+      <c r="B74" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="20"/>
+      <c r="U74" s="20"/>
+      <c r="V74" s="20"/>
+      <c r="W74" s="20"/>
+      <c r="X74" s="20"/>
+      <c r="Y74" s="20"/>
+      <c r="Z74" s="20"/>
+      <c r="AA74" s="20"/>
+      <c r="AB74" s="20"/>
+      <c r="AC74" s="20"/>
+      <c r="AD74" s="20"/>
+      <c r="AE74" s="20"/>
+      <c r="AF74" s="20"/>
+      <c r="AG74" s="20"/>
+      <c r="AH74" s="20"/>
+      <c r="AI74" s="20"/>
+      <c r="AJ74" s="20"/>
+      <c r="AK74" s="21"/>
+    </row>
+    <row r="75" spans="1:37" ht="16.5">
+      <c r="A75" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="20"/>
+      <c r="U75" s="20"/>
+      <c r="V75" s="20"/>
+      <c r="W75" s="20"/>
+      <c r="X75" s="20"/>
+      <c r="Y75" s="20"/>
+      <c r="Z75" s="20"/>
+      <c r="AA75" s="20"/>
+      <c r="AB75" s="20"/>
+      <c r="AC75" s="20"/>
+      <c r="AD75" s="20"/>
+      <c r="AE75" s="20"/>
+      <c r="AF75" s="20"/>
+      <c r="AG75" s="20"/>
+      <c r="AH75" s="20"/>
+      <c r="AI75" s="20"/>
+      <c r="AJ75" s="20"/>
+      <c r="AK75" s="21"/>
+    </row>
+    <row r="76" spans="1:37" ht="16.5">
+      <c r="A76" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="20"/>
+      <c r="S76" s="20"/>
+      <c r="T76" s="20"/>
+      <c r="U76" s="20"/>
+      <c r="V76" s="20"/>
+      <c r="W76" s="20"/>
+      <c r="X76" s="20"/>
+      <c r="Y76" s="20"/>
+      <c r="Z76" s="20"/>
+      <c r="AA76" s="20"/>
+      <c r="AB76" s="20"/>
+      <c r="AC76" s="20"/>
+      <c r="AD76" s="20"/>
+      <c r="AE76" s="20"/>
+      <c r="AF76" s="20"/>
+      <c r="AG76" s="20"/>
+      <c r="AH76" s="20"/>
+      <c r="AI76" s="20"/>
+      <c r="AJ76" s="20"/>
+      <c r="AK76" s="21"/>
+    </row>
+    <row r="77" spans="1:37" ht="16.5">
+      <c r="A77" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="20"/>
+      <c r="T77" s="20"/>
+      <c r="U77" s="20"/>
+      <c r="V77" s="20"/>
+      <c r="W77" s="20"/>
+      <c r="X77" s="20"/>
+      <c r="Y77" s="20"/>
+      <c r="Z77" s="20"/>
+      <c r="AA77" s="20"/>
+      <c r="AB77" s="20"/>
+      <c r="AC77" s="20"/>
+      <c r="AD77" s="20"/>
+      <c r="AE77" s="20"/>
+      <c r="AF77" s="20"/>
+      <c r="AG77" s="20"/>
+      <c r="AH77" s="20"/>
+      <c r="AI77" s="20"/>
+      <c r="AJ77" s="20"/>
+      <c r="AK77" s="21"/>
+    </row>
+    <row r="78" spans="1:37" ht="16.5">
+      <c r="A78" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="20"/>
+      <c r="S78" s="20"/>
+      <c r="T78" s="20"/>
+      <c r="U78" s="20"/>
+      <c r="V78" s="20"/>
+      <c r="W78" s="20"/>
+      <c r="X78" s="20"/>
+      <c r="Y78" s="20"/>
+      <c r="Z78" s="20"/>
+      <c r="AA78" s="20"/>
+      <c r="AB78" s="20"/>
+      <c r="AC78" s="20"/>
+      <c r="AD78" s="20"/>
+      <c r="AE78" s="20"/>
+      <c r="AF78" s="20"/>
+      <c r="AG78" s="20"/>
+      <c r="AH78" s="20"/>
+      <c r="AI78" s="20"/>
+      <c r="AJ78" s="20"/>
+      <c r="AK78" s="21"/>
+    </row>
+    <row r="79" spans="1:37" ht="16.5">
+      <c r="A79" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="20"/>
+      <c r="R79" s="20"/>
+      <c r="S79" s="20"/>
+      <c r="T79" s="20"/>
+      <c r="U79" s="20"/>
+      <c r="V79" s="20"/>
+      <c r="W79" s="20"/>
+      <c r="X79" s="20"/>
+      <c r="Y79" s="20"/>
+      <c r="Z79" s="20"/>
+      <c r="AA79" s="20"/>
+      <c r="AB79" s="20"/>
+      <c r="AC79" s="20"/>
+      <c r="AD79" s="20"/>
+      <c r="AE79" s="20"/>
+      <c r="AF79" s="20"/>
+      <c r="AG79" s="20"/>
+      <c r="AH79" s="20"/>
+      <c r="AI79" s="20"/>
+      <c r="AJ79" s="20"/>
+      <c r="AK79" s="21"/>
+    </row>
+    <row r="80" spans="1:37" ht="16.5">
+      <c r="A80" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="20"/>
+      <c r="S80" s="20"/>
+      <c r="T80" s="20"/>
+      <c r="U80" s="20"/>
+      <c r="V80" s="20"/>
+      <c r="W80" s="20"/>
+      <c r="X80" s="20"/>
+      <c r="Y80" s="20"/>
+      <c r="Z80" s="20"/>
+      <c r="AA80" s="20"/>
+      <c r="AB80" s="20"/>
+      <c r="AC80" s="20"/>
+      <c r="AD80" s="20"/>
+      <c r="AE80" s="20"/>
+      <c r="AF80" s="20"/>
+      <c r="AG80" s="20"/>
+      <c r="AH80" s="20"/>
+      <c r="AI80" s="20"/>
+      <c r="AJ80" s="20"/>
+      <c r="AK80" s="21"/>
+    </row>
+    <row r="81" spans="1:37" ht="16.5">
+      <c r="A81" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="20"/>
+      <c r="R81" s="20"/>
+      <c r="S81" s="20"/>
+      <c r="T81" s="20"/>
+      <c r="U81" s="20"/>
+      <c r="V81" s="20"/>
+      <c r="W81" s="20"/>
+      <c r="X81" s="20"/>
+      <c r="Y81" s="20"/>
+      <c r="Z81" s="20"/>
+      <c r="AA81" s="20"/>
+      <c r="AB81" s="20"/>
+      <c r="AC81" s="20"/>
+      <c r="AD81" s="20"/>
+      <c r="AE81" s="20"/>
+      <c r="AF81" s="20"/>
+      <c r="AG81" s="20"/>
+      <c r="AH81" s="20"/>
+      <c r="AI81" s="20"/>
+      <c r="AJ81" s="20"/>
+      <c r="AK81" s="21"/>
+    </row>
+    <row r="82" spans="1:37" ht="16.5">
+      <c r="A82" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="20"/>
+      <c r="S82" s="20"/>
+      <c r="T82" s="20"/>
+      <c r="U82" s="20"/>
+      <c r="V82" s="20"/>
+      <c r="W82" s="20"/>
+      <c r="X82" s="20"/>
+      <c r="Y82" s="20"/>
+      <c r="Z82" s="20"/>
+      <c r="AA82" s="20"/>
+      <c r="AB82" s="20"/>
+      <c r="AC82" s="20"/>
+      <c r="AD82" s="20"/>
+      <c r="AE82" s="20"/>
+      <c r="AF82" s="20"/>
+      <c r="AG82" s="20"/>
+      <c r="AH82" s="20"/>
+      <c r="AI82" s="20"/>
+      <c r="AJ82" s="20"/>
+      <c r="AK82" s="21"/>
+    </row>
+    <row r="83" spans="1:37" ht="16.5">
+      <c r="A83" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="18">
+        <v>0</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="20"/>
+      <c r="AA83" s="20"/>
+      <c r="AB83" s="20"/>
+      <c r="AC83" s="20"/>
+      <c r="AD83" s="20"/>
+      <c r="AE83" s="20"/>
+      <c r="AF83" s="20"/>
+      <c r="AG83" s="20"/>
+      <c r="AH83" s="20"/>
+      <c r="AI83" s="20"/>
+      <c r="AJ83" s="20"/>
+      <c r="AK83" s="21"/>
+    </row>
+    <row r="84" spans="1:37" ht="16.5">
+      <c r="A84" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="20"/>
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="20"/>
+      <c r="AA84" s="20"/>
+      <c r="AB84" s="20"/>
+      <c r="AC84" s="20"/>
+      <c r="AD84" s="20"/>
+      <c r="AE84" s="20"/>
+      <c r="AF84" s="20"/>
+      <c r="AG84" s="20"/>
+      <c r="AH84" s="20"/>
+      <c r="AI84" s="20"/>
+      <c r="AJ84" s="20"/>
+      <c r="AK84" s="21"/>
+    </row>
+    <row r="85" spans="1:37" ht="16.5">
+      <c r="A85" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="20"/>
+      <c r="O85" s="20"/>
+      <c r="P85" s="20"/>
+      <c r="Q85" s="20"/>
+      <c r="R85" s="20"/>
+      <c r="S85" s="20"/>
+      <c r="T85" s="20"/>
+      <c r="U85" s="20"/>
+      <c r="V85" s="20"/>
+      <c r="W85" s="20"/>
+      <c r="X85" s="20"/>
+      <c r="Y85" s="20"/>
+      <c r="Z85" s="20"/>
+      <c r="AA85" s="20"/>
+      <c r="AB85" s="20"/>
+      <c r="AC85" s="20"/>
+      <c r="AD85" s="20"/>
+      <c r="AE85" s="20"/>
+      <c r="AF85" s="20"/>
+      <c r="AG85" s="20"/>
+      <c r="AH85" s="20"/>
+      <c r="AI85" s="20"/>
+      <c r="AJ85" s="20"/>
+      <c r="AK85" s="21"/>
+    </row>
+    <row r="86" spans="1:37" ht="16.5">
+      <c r="A86" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="20"/>
+      <c r="U86" s="20"/>
+      <c r="V86" s="20"/>
+      <c r="W86" s="20"/>
+      <c r="X86" s="20"/>
+      <c r="Y86" s="20"/>
+      <c r="Z86" s="20"/>
+      <c r="AA86" s="20"/>
+      <c r="AB86" s="20"/>
+      <c r="AC86" s="20"/>
+      <c r="AD86" s="20"/>
+      <c r="AE86" s="20"/>
+      <c r="AF86" s="20"/>
+      <c r="AG86" s="20"/>
+      <c r="AH86" s="20"/>
+      <c r="AI86" s="20"/>
+      <c r="AJ86" s="20"/>
+      <c r="AK86" s="21"/>
+    </row>
+    <row r="87" spans="1:37" ht="16.5">
+      <c r="A87" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="20"/>
+      <c r="O87" s="20"/>
+      <c r="P87" s="20"/>
+      <c r="Q87" s="20"/>
+      <c r="R87" s="20"/>
+      <c r="S87" s="20"/>
+      <c r="T87" s="20"/>
+      <c r="U87" s="20"/>
+      <c r="V87" s="20"/>
+      <c r="W87" s="20"/>
+      <c r="X87" s="20"/>
+      <c r="Y87" s="20"/>
+      <c r="Z87" s="20"/>
+      <c r="AA87" s="20"/>
+      <c r="AB87" s="20"/>
+      <c r="AC87" s="20"/>
+      <c r="AD87" s="20"/>
+      <c r="AE87" s="20"/>
+      <c r="AF87" s="20"/>
+      <c r="AG87" s="20"/>
+      <c r="AH87" s="20"/>
+      <c r="AI87" s="20"/>
+      <c r="AJ87" s="20"/>
+      <c r="AK87" s="21"/>
+    </row>
+    <row r="88" spans="1:37" ht="16.5">
+      <c r="A88" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="20"/>
+      <c r="Q88" s="20"/>
+      <c r="R88" s="20"/>
+      <c r="S88" s="20"/>
+      <c r="T88" s="20"/>
+      <c r="U88" s="20"/>
+      <c r="V88" s="20"/>
+      <c r="W88" s="20"/>
+      <c r="X88" s="20"/>
+      <c r="Y88" s="20"/>
+      <c r="Z88" s="20"/>
+      <c r="AA88" s="20"/>
+      <c r="AB88" s="20"/>
+      <c r="AC88" s="20"/>
+      <c r="AD88" s="20"/>
+      <c r="AE88" s="20"/>
+      <c r="AF88" s="20"/>
+      <c r="AG88" s="20"/>
+      <c r="AH88" s="20"/>
+      <c r="AI88" s="20"/>
+      <c r="AJ88" s="20"/>
+      <c r="AK88" s="21"/>
+    </row>
+    <row r="89" spans="1:37" ht="16.5">
+      <c r="A89" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="20"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="20"/>
+      <c r="Q89" s="20"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="20"/>
+      <c r="T89" s="20"/>
+      <c r="U89" s="20"/>
+      <c r="V89" s="20"/>
+      <c r="W89" s="20"/>
+      <c r="X89" s="20"/>
+      <c r="Y89" s="20"/>
+      <c r="Z89" s="20"/>
+      <c r="AA89" s="20"/>
+      <c r="AB89" s="20"/>
+      <c r="AC89" s="20"/>
+      <c r="AD89" s="20"/>
+      <c r="AE89" s="20"/>
+      <c r="AF89" s="20"/>
+      <c r="AG89" s="20"/>
+      <c r="AH89" s="20"/>
+      <c r="AI89" s="20"/>
+      <c r="AJ89" s="20"/>
+      <c r="AK89" s="21"/>
+    </row>
+    <row r="90" spans="1:37" ht="16.5">
+      <c r="A90" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="20"/>
+      <c r="P90" s="20"/>
+      <c r="Q90" s="20"/>
+      <c r="R90" s="20"/>
+      <c r="S90" s="20"/>
+      <c r="T90" s="20"/>
+      <c r="U90" s="20"/>
+      <c r="V90" s="20"/>
+      <c r="W90" s="20"/>
+      <c r="X90" s="20"/>
+      <c r="Y90" s="20"/>
+      <c r="Z90" s="20"/>
+      <c r="AA90" s="20"/>
+      <c r="AB90" s="20"/>
+      <c r="AC90" s="20"/>
+      <c r="AD90" s="20"/>
+      <c r="AE90" s="20"/>
+      <c r="AF90" s="20"/>
+      <c r="AG90" s="20"/>
+      <c r="AH90" s="20"/>
+      <c r="AI90" s="20"/>
+      <c r="AJ90" s="20"/>
+      <c r="AK90" s="21"/>
+    </row>
+    <row r="91" spans="1:37" ht="16.5">
+      <c r="A91" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="20"/>
+      <c r="P91" s="20"/>
+      <c r="Q91" s="20"/>
+      <c r="R91" s="20"/>
+      <c r="S91" s="20"/>
+      <c r="T91" s="20"/>
+      <c r="U91" s="20"/>
+      <c r="V91" s="20"/>
+      <c r="W91" s="20"/>
+      <c r="X91" s="20"/>
+      <c r="Y91" s="20"/>
+      <c r="Z91" s="20"/>
+      <c r="AA91" s="20"/>
+      <c r="AB91" s="20"/>
+      <c r="AC91" s="20"/>
+      <c r="AD91" s="20"/>
+      <c r="AE91" s="20"/>
+      <c r="AF91" s="20"/>
+      <c r="AG91" s="20"/>
+      <c r="AH91" s="20"/>
+      <c r="AI91" s="20"/>
+      <c r="AJ91" s="20"/>
+      <c r="AK91" s="21"/>
+    </row>
+    <row r="92" spans="1:37" ht="16.5">
+      <c r="A92" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="20"/>
+      <c r="O92" s="20"/>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="20"/>
+      <c r="R92" s="20"/>
+      <c r="S92" s="20"/>
+      <c r="T92" s="20"/>
+      <c r="U92" s="20"/>
+      <c r="V92" s="20"/>
+      <c r="W92" s="20"/>
+      <c r="X92" s="20"/>
+      <c r="Y92" s="20"/>
+      <c r="Z92" s="20"/>
+      <c r="AA92" s="20"/>
+      <c r="AB92" s="20"/>
+      <c r="AC92" s="20"/>
+      <c r="AD92" s="20"/>
+      <c r="AE92" s="20"/>
+      <c r="AF92" s="20"/>
+      <c r="AG92" s="20"/>
+      <c r="AH92" s="20"/>
+      <c r="AI92" s="20"/>
+      <c r="AJ92" s="20"/>
+      <c r="AK92" s="21"/>
+    </row>
+    <row r="93" spans="1:37" ht="16.5">
+      <c r="A93" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="20"/>
+      <c r="O93" s="20"/>
+      <c r="P93" s="20"/>
+      <c r="Q93" s="20"/>
+      <c r="R93" s="20"/>
+      <c r="S93" s="20"/>
+      <c r="T93" s="20"/>
+      <c r="U93" s="20"/>
+      <c r="V93" s="20"/>
+      <c r="W93" s="20"/>
+      <c r="X93" s="20"/>
+      <c r="Y93" s="20"/>
+      <c r="Z93" s="20"/>
+      <c r="AA93" s="20"/>
+      <c r="AB93" s="20"/>
+      <c r="AC93" s="20"/>
+      <c r="AD93" s="20"/>
+      <c r="AE93" s="20"/>
+      <c r="AF93" s="20"/>
+      <c r="AG93" s="20"/>
+      <c r="AH93" s="20"/>
+      <c r="AI93" s="20"/>
+      <c r="AJ93" s="20"/>
+      <c r="AK93" s="21"/>
+    </row>
+    <row r="94" spans="1:37" ht="16.5">
+      <c r="A94" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="20"/>
+      <c r="P94" s="20"/>
+      <c r="Q94" s="20"/>
+      <c r="R94" s="20"/>
+      <c r="S94" s="20"/>
+      <c r="T94" s="20"/>
+      <c r="U94" s="20"/>
+      <c r="V94" s="20"/>
+      <c r="W94" s="20"/>
+      <c r="X94" s="20"/>
+      <c r="Y94" s="20"/>
+      <c r="Z94" s="20"/>
+      <c r="AA94" s="20"/>
+      <c r="AB94" s="20"/>
+      <c r="AC94" s="20"/>
+      <c r="AD94" s="20"/>
+      <c r="AE94" s="20"/>
+      <c r="AF94" s="20"/>
+      <c r="AG94" s="20"/>
+      <c r="AH94" s="20"/>
+      <c r="AI94" s="20"/>
+      <c r="AJ94" s="20"/>
+      <c r="AK94" s="21"/>
+    </row>
+    <row r="95" spans="1:37" ht="16.5">
+      <c r="A95" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="15"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="20"/>
+      <c r="M95" s="20"/>
+      <c r="N95" s="20"/>
+      <c r="O95" s="20"/>
+      <c r="P95" s="20"/>
+      <c r="Q95" s="20"/>
+      <c r="R95" s="20"/>
+      <c r="S95" s="20"/>
+      <c r="T95" s="20"/>
+      <c r="U95" s="20"/>
+      <c r="V95" s="20"/>
+      <c r="W95" s="20"/>
+      <c r="X95" s="20"/>
+      <c r="Y95" s="20"/>
+      <c r="Z95" s="20"/>
+      <c r="AA95" s="20"/>
+      <c r="AB95" s="20"/>
+      <c r="AC95" s="20"/>
+      <c r="AD95" s="20"/>
+      <c r="AE95" s="20"/>
+      <c r="AF95" s="20"/>
+      <c r="AG95" s="20"/>
+      <c r="AH95" s="20"/>
+      <c r="AI95" s="20"/>
+      <c r="AJ95" s="20"/>
+      <c r="AK95" s="21"/>
+    </row>
+    <row r="96" spans="1:37" ht="16.5">
+      <c r="A96" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="20"/>
+      <c r="O96" s="20"/>
+      <c r="P96" s="20"/>
+      <c r="Q96" s="20"/>
+      <c r="R96" s="20"/>
+      <c r="S96" s="20"/>
+      <c r="T96" s="20"/>
+      <c r="U96" s="20"/>
+      <c r="V96" s="20"/>
+      <c r="W96" s="20"/>
+      <c r="X96" s="20"/>
+      <c r="Y96" s="20"/>
+      <c r="Z96" s="20"/>
+      <c r="AA96" s="20"/>
+      <c r="AB96" s="20"/>
+      <c r="AC96" s="20"/>
+      <c r="AD96" s="20"/>
+      <c r="AE96" s="20"/>
+      <c r="AF96" s="20"/>
+      <c r="AG96" s="20"/>
+      <c r="AH96" s="20"/>
+      <c r="AI96" s="20"/>
+      <c r="AJ96" s="20"/>
+      <c r="AK96" s="21"/>
+    </row>
+    <row r="97" spans="1:37" ht="16.5">
+      <c r="A97" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B97" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="20"/>
+      <c r="O97" s="20"/>
+      <c r="P97" s="20"/>
+      <c r="Q97" s="20"/>
+      <c r="R97" s="20"/>
+      <c r="S97" s="20"/>
+      <c r="T97" s="20"/>
+      <c r="U97" s="20"/>
+      <c r="V97" s="20"/>
+      <c r="W97" s="20"/>
+      <c r="X97" s="20"/>
+      <c r="Y97" s="20"/>
+      <c r="Z97" s="20"/>
+      <c r="AA97" s="20"/>
+      <c r="AB97" s="20"/>
+      <c r="AC97" s="20"/>
+      <c r="AD97" s="20"/>
+      <c r="AE97" s="20"/>
+      <c r="AF97" s="20"/>
+      <c r="AG97" s="20"/>
+      <c r="AH97" s="20"/>
+      <c r="AI97" s="20"/>
+      <c r="AJ97" s="20"/>
+      <c r="AK97" s="21"/>
+    </row>
+    <row r="98" spans="1:37" ht="16.5">
+      <c r="A98" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="15"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="18">
+        <v>0</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="20"/>
+      <c r="O98" s="20"/>
+      <c r="P98" s="20"/>
+      <c r="Q98" s="20"/>
+      <c r="R98" s="20"/>
+      <c r="S98" s="20"/>
+      <c r="T98" s="20"/>
+      <c r="U98" s="20"/>
+      <c r="V98" s="20"/>
+      <c r="W98" s="20"/>
+      <c r="X98" s="20"/>
+      <c r="Y98" s="20"/>
+      <c r="Z98" s="20"/>
+      <c r="AA98" s="20"/>
+      <c r="AB98" s="20"/>
+      <c r="AC98" s="20"/>
+      <c r="AD98" s="20"/>
+      <c r="AE98" s="20"/>
+      <c r="AF98" s="20"/>
+      <c r="AG98" s="20"/>
+      <c r="AH98" s="20"/>
+      <c r="AI98" s="20"/>
+      <c r="AJ98" s="20"/>
+      <c r="AK98" s="21"/>
+    </row>
+    <row r="99" spans="1:37" ht="16.5">
+      <c r="A99" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" s="15"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="20"/>
+      <c r="O99" s="20"/>
+      <c r="P99" s="20"/>
+      <c r="Q99" s="20"/>
+      <c r="R99" s="20"/>
+      <c r="S99" s="20"/>
+      <c r="T99" s="20"/>
+      <c r="U99" s="20"/>
+      <c r="V99" s="20"/>
+      <c r="W99" s="20"/>
+      <c r="X99" s="20"/>
+      <c r="Y99" s="20"/>
+      <c r="Z99" s="20"/>
+      <c r="AA99" s="20"/>
+      <c r="AB99" s="20"/>
+      <c r="AC99" s="20"/>
+      <c r="AD99" s="20"/>
+      <c r="AE99" s="20"/>
+      <c r="AF99" s="20"/>
+      <c r="AG99" s="20"/>
+      <c r="AH99" s="20"/>
+      <c r="AI99" s="20"/>
+      <c r="AJ99" s="20"/>
+      <c r="AK99" s="21"/>
+    </row>
+    <row r="100" spans="1:37" ht="16.5">
+      <c r="A100" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="18">
+        <v>0</v>
+      </c>
+      <c r="H100" s="44"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="20"/>
+      <c r="O100" s="20"/>
+      <c r="P100" s="20"/>
+      <c r="Q100" s="20"/>
+      <c r="R100" s="20"/>
+      <c r="S100" s="20"/>
+      <c r="T100" s="20"/>
+      <c r="U100" s="20"/>
+      <c r="V100" s="20"/>
+      <c r="W100" s="20"/>
+      <c r="X100" s="20"/>
+      <c r="Y100" s="20"/>
+      <c r="Z100" s="20"/>
+      <c r="AA100" s="20"/>
+      <c r="AB100" s="20"/>
+      <c r="AC100" s="20"/>
+      <c r="AD100" s="20"/>
+      <c r="AE100" s="20"/>
+      <c r="AF100" s="20"/>
+      <c r="AG100" s="20"/>
+      <c r="AH100" s="20"/>
+      <c r="AI100" s="20"/>
+      <c r="AJ100" s="20"/>
+      <c r="AK100" s="21"/>
+    </row>
+    <row r="101" spans="1:37" ht="16.5">
+      <c r="A101" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" s="15"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="18">
+        <v>0</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="20"/>
+      <c r="O101" s="20"/>
+      <c r="P101" s="20"/>
+      <c r="Q101" s="20"/>
+      <c r="R101" s="20"/>
+      <c r="S101" s="20"/>
+      <c r="T101" s="20"/>
+      <c r="U101" s="20"/>
+      <c r="V101" s="20"/>
+      <c r="W101" s="20"/>
+      <c r="X101" s="20"/>
+      <c r="Y101" s="20"/>
+      <c r="Z101" s="20"/>
+      <c r="AA101" s="20"/>
+      <c r="AB101" s="20"/>
+      <c r="AC101" s="20"/>
+      <c r="AD101" s="20"/>
+      <c r="AE101" s="20"/>
+      <c r="AF101" s="20"/>
+      <c r="AG101" s="20"/>
+      <c r="AH101" s="20"/>
+      <c r="AI101" s="20"/>
+      <c r="AJ101" s="20"/>
+      <c r="AK101" s="21"/>
+    </row>
+    <row r="102" spans="1:37" ht="16.5">
+      <c r="A102" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B102" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" s="15"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="18">
+        <v>0</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="20"/>
+      <c r="O102" s="20"/>
+      <c r="P102" s="20"/>
+      <c r="Q102" s="20"/>
+      <c r="R102" s="20"/>
+      <c r="S102" s="20"/>
+      <c r="T102" s="20"/>
+      <c r="U102" s="20"/>
+      <c r="V102" s="20"/>
+      <c r="W102" s="20"/>
+      <c r="X102" s="20"/>
+      <c r="Y102" s="20"/>
+      <c r="Z102" s="20"/>
+      <c r="AA102" s="20"/>
+      <c r="AB102" s="20"/>
+      <c r="AC102" s="20"/>
+      <c r="AD102" s="20"/>
+      <c r="AE102" s="20"/>
+      <c r="AF102" s="20"/>
+      <c r="AG102" s="20"/>
+      <c r="AH102" s="20"/>
+      <c r="AI102" s="20"/>
+      <c r="AJ102" s="20"/>
+      <c r="AK102" s="21"/>
+    </row>
+    <row r="103" spans="1:37" ht="16.5">
+      <c r="A103" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" s="30"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="33">
+        <v>0</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="20"/>
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
+      <c r="Q103" s="20"/>
+      <c r="R103" s="20"/>
+      <c r="S103" s="20"/>
+      <c r="T103" s="20"/>
+      <c r="U103" s="20"/>
+      <c r="V103" s="20"/>
+      <c r="W103" s="20"/>
+      <c r="X103" s="20"/>
+      <c r="Y103" s="20"/>
+      <c r="Z103" s="20"/>
+      <c r="AA103" s="20"/>
+      <c r="AB103" s="20"/>
+      <c r="AC103" s="20"/>
+      <c r="AD103" s="20"/>
+      <c r="AE103" s="20"/>
+      <c r="AF103" s="20"/>
+      <c r="AG103" s="20"/>
+      <c r="AH103" s="20"/>
+      <c r="AI103" s="20"/>
+      <c r="AJ103" s="20"/>
+      <c r="AK103" s="21"/>
+    </row>
+    <row r="104" spans="1:37" ht="16.5">
+      <c r="A104" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="18">
+        <v>0</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="20"/>
+      <c r="O104" s="20"/>
+      <c r="P104" s="20"/>
+      <c r="Q104" s="20"/>
+      <c r="R104" s="20"/>
+      <c r="S104" s="20"/>
+      <c r="T104" s="20"/>
+      <c r="U104" s="20"/>
+      <c r="V104" s="20"/>
+      <c r="W104" s="20"/>
+      <c r="X104" s="20"/>
+      <c r="Y104" s="20"/>
+      <c r="Z104" s="20"/>
+      <c r="AA104" s="20"/>
+      <c r="AB104" s="20"/>
+      <c r="AC104" s="20"/>
+      <c r="AD104" s="20"/>
+      <c r="AE104" s="20"/>
+      <c r="AF104" s="20"/>
+      <c r="AG104" s="20"/>
+      <c r="AH104" s="20"/>
+      <c r="AI104" s="20"/>
+      <c r="AJ104" s="20"/>
+      <c r="AK104" s="21"/>
+    </row>
+    <row r="105" spans="1:37" ht="16.5">
+      <c r="A105" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="18">
+        <v>0</v>
+      </c>
+      <c r="H105" s="50"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="51"/>
+      <c r="O105" s="51"/>
+      <c r="P105" s="51"/>
+      <c r="Q105" s="51"/>
+      <c r="R105" s="51"/>
+      <c r="S105" s="51"/>
+      <c r="T105" s="51"/>
+      <c r="U105" s="51"/>
+      <c r="V105" s="51"/>
+      <c r="W105" s="51"/>
+      <c r="X105" s="51"/>
+      <c r="Y105" s="51"/>
+      <c r="Z105" s="51"/>
+      <c r="AA105" s="51"/>
+      <c r="AB105" s="51"/>
+      <c r="AC105" s="51"/>
+      <c r="AD105" s="51"/>
+      <c r="AE105" s="51"/>
+      <c r="AF105" s="51"/>
+      <c r="AG105" s="51"/>
+      <c r="AH105" s="51"/>
+      <c r="AI105" s="51"/>
+      <c r="AJ105" s="51"/>
+      <c r="AK105" s="52"/>
+    </row>
+    <row r="106" spans="1:37" ht="12.75">
+      <c r="F106" s="54"/>
+      <c r="G106" s="55"/>
+    </row>
+    <row r="107" spans="1:37" ht="12.75">
+      <c r="F107" s="54"/>
+    </row>
+    <row r="108" spans="1:37" ht="12.75">
+      <c r="F108" s="54"/>
+    </row>
+    <row r="109" spans="1:37" ht="12.75">
+      <c r="F109" s="54"/>
+    </row>
+    <row r="110" spans="1:37" ht="12.75">
+      <c r="F110" s="54"/>
+    </row>
+    <row r="111" spans="1:37" ht="12.75">
+      <c r="F111" s="54"/>
+    </row>
+    <row r="112" spans="1:37" ht="12.75">
+      <c r="F112" s="54"/>
+    </row>
+    <row r="113" spans="1:6" ht="12.75">
+      <c r="F113" s="54"/>
+    </row>
+    <row r="114" spans="1:6" ht="12.75">
+      <c r="F114" s="54"/>
+    </row>
+    <row r="115" spans="1:6" ht="12.75">
+      <c r="F115" s="54"/>
+    </row>
+    <row r="116" spans="1:6" ht="12.75">
+      <c r="F116" s="54"/>
+    </row>
+    <row r="117" spans="1:6" ht="12.75">
+      <c r="F117" s="54"/>
+    </row>
+    <row r="118" spans="1:6" ht="12.75">
+      <c r="F118" s="54"/>
+    </row>
+    <row r="119" spans="1:6" ht="12.75">
+      <c r="F119" s="54"/>
+    </row>
+    <row r="120" spans="1:6" ht="12.75">
+      <c r="F120" s="54"/>
+    </row>
+    <row r="121" spans="1:6" ht="12.75">
+      <c r="A121" s="56"/>
+      <c r="F121" s="54"/>
+    </row>
+    <row r="122" spans="1:6" ht="12.75">
+      <c r="A122" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F122" s="54"/>
+    </row>
+    <row r="123" spans="1:6" ht="12.75">
+      <c r="A123" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="56"/>
-    </row>
-    <row r="77" spans="1:6" ht="12.75">
-      <c r="A77" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="F77" s="56"/>
-    </row>
-    <row r="78" spans="1:6" ht="12.75">
-      <c r="A78" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="F78" s="56"/>
-    </row>
-    <row r="79" spans="1:6" ht="12.75">
-      <c r="F79" s="56"/>
-    </row>
-    <row r="80" spans="1:6" ht="12.75">
-      <c r="F80" s="56"/>
-    </row>
-    <row r="81" spans="6:6" ht="12.75">
-      <c r="F81" s="56"/>
-    </row>
-    <row r="82" spans="6:6" ht="12.75">
-      <c r="F82" s="56"/>
-    </row>
-    <row r="83" spans="6:6" ht="12.75">
-      <c r="F83" s="56"/>
-    </row>
-    <row r="84" spans="6:6" ht="12.75">
-      <c r="F84" s="56"/>
-    </row>
-    <row r="85" spans="6:6" ht="12.75">
-      <c r="F85" s="56"/>
-    </row>
-    <row r="86" spans="6:6" ht="12.75">
-      <c r="F86" s="56"/>
-    </row>
-    <row r="87" spans="6:6" ht="12.75">
-      <c r="F87" s="56"/>
-    </row>
-    <row r="88" spans="6:6" ht="12.75">
-      <c r="F88" s="56"/>
-    </row>
-    <row r="89" spans="6:6" ht="12.75">
-      <c r="F89" s="56"/>
-    </row>
-    <row r="90" spans="6:6" ht="12.75">
-      <c r="F90" s="56"/>
-    </row>
-    <row r="91" spans="6:6" ht="12.75">
-      <c r="F91" s="56"/>
-    </row>
-    <row r="92" spans="6:6" ht="12.75">
-      <c r="F92" s="56"/>
-    </row>
-    <row r="93" spans="6:6" ht="12.75">
-      <c r="F93" s="56"/>
-    </row>
-    <row r="94" spans="6:6" ht="12.75">
-      <c r="F94" s="56"/>
-    </row>
-    <row r="95" spans="6:6" ht="12.75">
-      <c r="F95" s="56"/>
-    </row>
-    <row r="96" spans="6:6" ht="12.75">
-      <c r="F96" s="56"/>
-    </row>
-    <row r="97" spans="6:6" ht="12.75">
-      <c r="F97" s="56"/>
-    </row>
-    <row r="98" spans="6:6" ht="12.75">
-      <c r="F98" s="56"/>
-    </row>
-    <row r="99" spans="6:6" ht="12.75">
-      <c r="F99" s="56"/>
-    </row>
-    <row r="100" spans="6:6" ht="12.75">
-      <c r="F100" s="56"/>
-    </row>
-    <row r="101" spans="6:6" ht="12.75">
-      <c r="F101" s="56"/>
-    </row>
-    <row r="102" spans="6:6" ht="12.75">
-      <c r="F102" s="56"/>
-    </row>
-    <row r="103" spans="6:6" ht="12.75">
-      <c r="F103" s="56"/>
-    </row>
-    <row r="104" spans="6:6" ht="12.75">
-      <c r="F104" s="56"/>
-    </row>
-    <row r="105" spans="6:6" ht="12.75">
-      <c r="F105" s="56"/>
-    </row>
-    <row r="106" spans="6:6" ht="12.75">
-      <c r="F106" s="56"/>
-    </row>
-    <row r="107" spans="6:6" ht="12.75">
-      <c r="F107" s="56"/>
-    </row>
-    <row r="108" spans="6:6" ht="12.75">
-      <c r="F108" s="56"/>
-    </row>
-    <row r="109" spans="6:6" ht="12.75">
-      <c r="F109" s="56"/>
-    </row>
-    <row r="110" spans="6:6" ht="12.75">
-      <c r="F110" s="56"/>
-    </row>
-    <row r="111" spans="6:6" ht="12.75">
-      <c r="F111" s="56"/>
-    </row>
-    <row r="112" spans="6:6" ht="12.75">
-      <c r="F112" s="56"/>
-    </row>
-    <row r="113" spans="6:6" ht="12.75">
-      <c r="F113" s="56"/>
-    </row>
-    <row r="114" spans="6:6" ht="12.75">
-      <c r="F114" s="56"/>
-    </row>
-    <row r="115" spans="6:6" ht="12.75">
-      <c r="F115" s="56"/>
-    </row>
-    <row r="116" spans="6:6" ht="12.75">
-      <c r="F116" s="56"/>
-    </row>
-    <row r="117" spans="6:6" ht="12.75">
-      <c r="F117" s="56"/>
-    </row>
-    <row r="118" spans="6:6" ht="12.75">
-      <c r="F118" s="56"/>
-    </row>
-    <row r="119" spans="6:6" ht="12.75">
-      <c r="F119" s="56"/>
-    </row>
-    <row r="120" spans="6:6" ht="12.75">
-      <c r="F120" s="56"/>
-    </row>
-    <row r="121" spans="6:6" ht="12.75">
-      <c r="F121" s="56"/>
-    </row>
-    <row r="122" spans="6:6" ht="12.75">
-      <c r="F122" s="56"/>
-    </row>
-    <row r="123" spans="6:6" ht="12.75">
-      <c r="F123" s="56"/>
-    </row>
-    <row r="124" spans="6:6" ht="12.75">
-      <c r="F124" s="56"/>
-    </row>
-    <row r="125" spans="6:6" ht="12.75">
-      <c r="F125" s="56"/>
-    </row>
-    <row r="126" spans="6:6" ht="12.75">
-      <c r="F126" s="56"/>
-    </row>
-    <row r="127" spans="6:6" ht="12.75">
-      <c r="F127" s="56"/>
-    </row>
-    <row r="128" spans="6:6" ht="12.75">
-      <c r="F128" s="56"/>
+      <c r="F123" s="54"/>
+    </row>
+    <row r="124" spans="1:6" ht="12.75">
+      <c r="A124" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F124" s="54"/>
+    </row>
+    <row r="125" spans="1:6" ht="12.75">
+      <c r="A125" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="F125" s="54"/>
+    </row>
+    <row r="126" spans="1:6" ht="12.75">
+      <c r="F126" s="54"/>
+    </row>
+    <row r="127" spans="1:6" ht="12.75">
+      <c r="F127" s="54"/>
+    </row>
+    <row r="128" spans="1:6" ht="12.75">
+      <c r="F128" s="54"/>
     </row>
     <row r="129" spans="6:6" ht="12.75">
-      <c r="F129" s="56"/>
+      <c r="F129" s="54"/>
     </row>
     <row r="130" spans="6:6" ht="12.75">
-      <c r="F130" s="56"/>
+      <c r="F130" s="54"/>
     </row>
     <row r="131" spans="6:6" ht="12.75">
-      <c r="F131" s="56"/>
+      <c r="F131" s="54"/>
     </row>
     <row r="132" spans="6:6" ht="12.75">
-      <c r="F132" s="56"/>
+      <c r="F132" s="54"/>
     </row>
     <row r="133" spans="6:6" ht="12.75">
-      <c r="F133" s="56"/>
+      <c r="F133" s="54"/>
     </row>
     <row r="134" spans="6:6" ht="12.75">
-      <c r="F134" s="56"/>
+      <c r="F134" s="54"/>
     </row>
     <row r="135" spans="6:6" ht="12.75">
-      <c r="F135" s="56"/>
+      <c r="F135" s="54"/>
     </row>
     <row r="136" spans="6:6" ht="12.75">
-      <c r="F136" s="56"/>
+      <c r="F136" s="54"/>
     </row>
     <row r="137" spans="6:6" ht="12.75">
-      <c r="F137" s="56"/>
+      <c r="F137" s="54"/>
     </row>
     <row r="138" spans="6:6" ht="12.75">
-      <c r="F138" s="56"/>
+      <c r="F138" s="54"/>
     </row>
     <row r="139" spans="6:6" ht="12.75">
-      <c r="F139" s="56"/>
+      <c r="F139" s="54"/>
     </row>
     <row r="140" spans="6:6" ht="12.75">
-      <c r="F140" s="56"/>
+      <c r="F140" s="54"/>
     </row>
     <row r="141" spans="6:6" ht="12.75">
-      <c r="F141" s="56"/>
+      <c r="F141" s="54"/>
     </row>
     <row r="142" spans="6:6" ht="12.75">
-      <c r="F142" s="56"/>
+      <c r="F142" s="54"/>
     </row>
     <row r="143" spans="6:6" ht="12.75">
-      <c r="F143" s="56"/>
+      <c r="F143" s="54"/>
     </row>
     <row r="144" spans="6:6" ht="12.75">
-      <c r="F144" s="56"/>
+      <c r="F144" s="54"/>
     </row>
     <row r="145" spans="6:6" ht="12.75">
-      <c r="F145" s="56"/>
+      <c r="F145" s="54"/>
     </row>
     <row r="146" spans="6:6" ht="12.75">
-      <c r="F146" s="56"/>
+      <c r="F146" s="54"/>
     </row>
     <row r="147" spans="6:6" ht="12.75">
-      <c r="F147" s="56"/>
+      <c r="F147" s="54"/>
     </row>
     <row r="148" spans="6:6" ht="12.75">
-      <c r="F148" s="56"/>
+      <c r="F148" s="54"/>
     </row>
     <row r="149" spans="6:6" ht="12.75">
-      <c r="F149" s="56"/>
+      <c r="F149" s="54"/>
     </row>
     <row r="150" spans="6:6" ht="12.75">
-      <c r="F150" s="56"/>
+      <c r="F150" s="54"/>
     </row>
     <row r="151" spans="6:6" ht="12.75">
-      <c r="F151" s="56"/>
+      <c r="F151" s="54"/>
     </row>
     <row r="152" spans="6:6" ht="12.75">
-      <c r="F152" s="56"/>
+      <c r="F152" s="54"/>
     </row>
     <row r="153" spans="6:6" ht="12.75">
-      <c r="F153" s="56"/>
+      <c r="F153" s="54"/>
     </row>
     <row r="154" spans="6:6" ht="12.75">
-      <c r="F154" s="56"/>
+      <c r="F154" s="54"/>
     </row>
     <row r="155" spans="6:6" ht="12.75">
-      <c r="F155" s="56"/>
+      <c r="F155" s="54"/>
     </row>
     <row r="156" spans="6:6" ht="12.75">
-      <c r="F156" s="56"/>
+      <c r="F156" s="54"/>
     </row>
     <row r="157" spans="6:6" ht="12.75">
-      <c r="F157" s="56"/>
+      <c r="F157" s="54"/>
     </row>
     <row r="158" spans="6:6" ht="12.75">
-      <c r="F158" s="56"/>
+      <c r="F158" s="54"/>
     </row>
     <row r="159" spans="6:6" ht="12.75">
-      <c r="F159" s="56"/>
+      <c r="F159" s="54"/>
     </row>
     <row r="160" spans="6:6" ht="12.75">
-      <c r="F160" s="56"/>
+      <c r="F160" s="54"/>
     </row>
     <row r="161" spans="6:6" ht="12.75">
-      <c r="F161" s="56"/>
+      <c r="F161" s="54"/>
     </row>
     <row r="162" spans="6:6" ht="12.75">
-      <c r="F162" s="56"/>
+      <c r="F162" s="54"/>
     </row>
     <row r="163" spans="6:6" ht="12.75">
-      <c r="F163" s="56"/>
+      <c r="F163" s="54"/>
     </row>
     <row r="164" spans="6:6" ht="12.75">
-      <c r="F164" s="56"/>
+      <c r="F164" s="54"/>
     </row>
     <row r="165" spans="6:6" ht="12.75">
-      <c r="F165" s="56"/>
+      <c r="F165" s="54"/>
     </row>
     <row r="166" spans="6:6" ht="12.75">
-      <c r="F166" s="56"/>
+      <c r="F166" s="54"/>
     </row>
     <row r="167" spans="6:6" ht="12.75">
-      <c r="F167" s="56"/>
+      <c r="F167" s="54"/>
     </row>
     <row r="168" spans="6:6" ht="12.75">
-      <c r="F168" s="56"/>
+      <c r="F168" s="54"/>
     </row>
     <row r="169" spans="6:6" ht="12.75">
-      <c r="F169" s="56"/>
+      <c r="F169" s="54"/>
     </row>
     <row r="170" spans="6:6" ht="12.75">
-      <c r="F170" s="56"/>
+      <c r="F170" s="54"/>
     </row>
     <row r="171" spans="6:6" ht="12.75">
-      <c r="F171" s="56"/>
+      <c r="F171" s="54"/>
     </row>
     <row r="172" spans="6:6" ht="12.75">
-      <c r="F172" s="56"/>
+      <c r="F172" s="54"/>
     </row>
     <row r="173" spans="6:6" ht="12.75">
-      <c r="F173" s="56"/>
+      <c r="F173" s="54"/>
     </row>
     <row r="174" spans="6:6" ht="12.75">
-      <c r="F174" s="56"/>
+      <c r="F174" s="54"/>
     </row>
     <row r="175" spans="6:6" ht="12.75">
-      <c r="F175" s="56"/>
+      <c r="F175" s="54"/>
     </row>
     <row r="176" spans="6:6" ht="12.75">
-      <c r="F176" s="56"/>
+      <c r="F176" s="54"/>
     </row>
     <row r="177" spans="6:6" ht="12.75">
-      <c r="F177" s="56"/>
+      <c r="F177" s="54"/>
     </row>
     <row r="178" spans="6:6" ht="12.75">
-      <c r="F178" s="56"/>
+      <c r="F178" s="54"/>
     </row>
     <row r="179" spans="6:6" ht="12.75">
-      <c r="F179" s="56"/>
+      <c r="F179" s="54"/>
     </row>
     <row r="180" spans="6:6" ht="12.75">
-      <c r="F180" s="56"/>
+      <c r="F180" s="54"/>
     </row>
     <row r="181" spans="6:6" ht="12.75">
-      <c r="F181" s="56"/>
+      <c r="F181" s="54"/>
     </row>
     <row r="182" spans="6:6" ht="12.75">
-      <c r="F182" s="56"/>
+      <c r="F182" s="54"/>
     </row>
     <row r="183" spans="6:6" ht="12.75">
-      <c r="F183" s="56"/>
+      <c r="F183" s="54"/>
     </row>
     <row r="184" spans="6:6" ht="12.75">
-      <c r="F184" s="56"/>
+      <c r="F184" s="54"/>
     </row>
     <row r="185" spans="6:6" ht="12.75">
-      <c r="F185" s="56"/>
+      <c r="F185" s="54"/>
     </row>
     <row r="186" spans="6:6" ht="12.75">
-      <c r="F186" s="56"/>
+      <c r="F186" s="54"/>
     </row>
     <row r="187" spans="6:6" ht="12.75">
-      <c r="F187" s="56"/>
+      <c r="F187" s="54"/>
     </row>
     <row r="188" spans="6:6" ht="12.75">
-      <c r="F188" s="56"/>
+      <c r="F188" s="54"/>
     </row>
     <row r="189" spans="6:6" ht="12.75">
-      <c r="F189" s="56"/>
+      <c r="F189" s="54"/>
     </row>
     <row r="190" spans="6:6" ht="12.75">
-      <c r="F190" s="56"/>
+      <c r="F190" s="54"/>
     </row>
     <row r="191" spans="6:6" ht="12.75">
-      <c r="F191" s="56"/>
+      <c r="F191" s="54"/>
     </row>
     <row r="192" spans="6:6" ht="12.75">
-      <c r="F192" s="56"/>
+      <c r="F192" s="54"/>
     </row>
     <row r="193" spans="6:6" ht="12.75">
-      <c r="F193" s="56"/>
+      <c r="F193" s="54"/>
     </row>
     <row r="194" spans="6:6" ht="12.75">
-      <c r="F194" s="56"/>
+      <c r="F194" s="54"/>
     </row>
     <row r="195" spans="6:6" ht="12.75">
-      <c r="F195" s="56"/>
+      <c r="F195" s="54"/>
     </row>
     <row r="196" spans="6:6" ht="12.75">
-      <c r="F196" s="56"/>
+      <c r="F196" s="54"/>
     </row>
     <row r="197" spans="6:6" ht="12.75">
-      <c r="F197" s="56"/>
+      <c r="F197" s="54"/>
     </row>
     <row r="198" spans="6:6" ht="12.75">
-      <c r="F198" s="56"/>
+      <c r="F198" s="54"/>
     </row>
     <row r="199" spans="6:6" ht="12.75">
-      <c r="F199" s="56"/>
+      <c r="F199" s="54"/>
     </row>
     <row r="200" spans="6:6" ht="12.75">
-      <c r="F200" s="56"/>
+      <c r="F200" s="54"/>
     </row>
     <row r="201" spans="6:6" ht="12.75">
-      <c r="F201" s="56"/>
+      <c r="F201" s="54"/>
     </row>
     <row r="202" spans="6:6" ht="12.75">
-      <c r="F202" s="56"/>
+      <c r="F202" s="54"/>
     </row>
     <row r="203" spans="6:6" ht="12.75">
-      <c r="F203" s="56"/>
+      <c r="F203" s="54"/>
     </row>
     <row r="204" spans="6:6" ht="12.75">
-      <c r="F204" s="56"/>
+      <c r="F204" s="54"/>
     </row>
     <row r="205" spans="6:6" ht="12.75">
-      <c r="F205" s="56"/>
+      <c r="F205" s="54"/>
     </row>
     <row r="206" spans="6:6" ht="12.75">
-      <c r="F206" s="56"/>
+      <c r="F206" s="54"/>
     </row>
     <row r="207" spans="6:6" ht="12.75">
-      <c r="F207" s="56"/>
+      <c r="F207" s="54"/>
     </row>
     <row r="208" spans="6:6" ht="12.75">
-      <c r="F208" s="56"/>
+      <c r="F208" s="54"/>
     </row>
     <row r="209" spans="6:6" ht="12.75">
-      <c r="F209" s="56"/>
+      <c r="F209" s="54"/>
     </row>
     <row r="210" spans="6:6" ht="12.75">
-      <c r="F210" s="56"/>
+      <c r="F210" s="54"/>
     </row>
     <row r="211" spans="6:6" ht="12.75">
-      <c r="F211" s="56"/>
+      <c r="F211" s="54"/>
     </row>
     <row r="212" spans="6:6" ht="12.75">
-      <c r="F212" s="56"/>
+      <c r="F212" s="54"/>
     </row>
     <row r="213" spans="6:6" ht="12.75">
-      <c r="F213" s="56"/>
+      <c r="F213" s="54"/>
     </row>
     <row r="214" spans="6:6" ht="12.75">
-      <c r="F214" s="56"/>
+      <c r="F214" s="54"/>
     </row>
     <row r="215" spans="6:6" ht="12.75">
-      <c r="F215" s="56"/>
+      <c r="F215" s="54"/>
     </row>
     <row r="216" spans="6:6" ht="12.75">
-      <c r="F216" s="56"/>
+      <c r="F216" s="54"/>
     </row>
     <row r="217" spans="6:6" ht="12.75">
-      <c r="F217" s="56"/>
+      <c r="F217" s="54"/>
     </row>
     <row r="218" spans="6:6" ht="12.75">
-      <c r="F218" s="56"/>
+      <c r="F218" s="54"/>
     </row>
     <row r="219" spans="6:6" ht="12.75">
-      <c r="F219" s="56"/>
+      <c r="F219" s="54"/>
     </row>
     <row r="220" spans="6:6" ht="12.75">
-      <c r="F220" s="56"/>
+      <c r="F220" s="54"/>
     </row>
     <row r="221" spans="6:6" ht="12.75">
-      <c r="F221" s="56"/>
+      <c r="F221" s="54"/>
     </row>
     <row r="222" spans="6:6" ht="12.75">
-      <c r="F222" s="56"/>
+      <c r="F222" s="54"/>
     </row>
     <row r="223" spans="6:6" ht="12.75">
-      <c r="F223" s="56"/>
+      <c r="F223" s="54"/>
     </row>
     <row r="224" spans="6:6" ht="12.75">
-      <c r="F224" s="56"/>
+      <c r="F224" s="54"/>
     </row>
     <row r="225" spans="6:6" ht="12.75">
-      <c r="F225" s="56"/>
+      <c r="F225" s="54"/>
     </row>
     <row r="226" spans="6:6" ht="12.75">
-      <c r="F226" s="56"/>
+      <c r="F226" s="54"/>
     </row>
     <row r="227" spans="6:6" ht="12.75">
-      <c r="F227" s="56"/>
+      <c r="F227" s="54"/>
     </row>
     <row r="228" spans="6:6" ht="12.75">
-      <c r="F228" s="56"/>
+      <c r="F228" s="54"/>
     </row>
     <row r="229" spans="6:6" ht="12.75">
-      <c r="F229" s="56"/>
+      <c r="F229" s="54"/>
     </row>
     <row r="230" spans="6:6" ht="12.75">
-      <c r="F230" s="56"/>
+      <c r="F230" s="54"/>
     </row>
     <row r="231" spans="6:6" ht="12.75">
-      <c r="F231" s="56"/>
+      <c r="F231" s="54"/>
     </row>
     <row r="232" spans="6:6" ht="12.75">
-      <c r="F232" s="56"/>
+      <c r="F232" s="54"/>
     </row>
     <row r="233" spans="6:6" ht="12.75">
-      <c r="F233" s="56"/>
+      <c r="F233" s="54"/>
     </row>
     <row r="234" spans="6:6" ht="12.75">
-      <c r="F234" s="56"/>
+      <c r="F234" s="54"/>
     </row>
     <row r="235" spans="6:6" ht="12.75">
-      <c r="F235" s="56"/>
+      <c r="F235" s="54"/>
     </row>
     <row r="236" spans="6:6" ht="12.75">
-      <c r="F236" s="56"/>
+      <c r="F236" s="54"/>
     </row>
     <row r="237" spans="6:6" ht="12.75">
-      <c r="F237" s="56"/>
+      <c r="F237" s="54"/>
     </row>
     <row r="238" spans="6:6" ht="12.75">
-      <c r="F238" s="56"/>
+      <c r="F238" s="54"/>
     </row>
     <row r="239" spans="6:6" ht="12.75">
-      <c r="F239" s="56"/>
+      <c r="F239" s="54"/>
     </row>
     <row r="240" spans="6:6" ht="12.75">
-      <c r="F240" s="56"/>
+      <c r="F240" s="54"/>
     </row>
     <row r="241" spans="6:6" ht="12.75">
-      <c r="F241" s="56"/>
+      <c r="F241" s="54"/>
     </row>
     <row r="242" spans="6:6" ht="12.75">
-      <c r="F242" s="56"/>
+      <c r="F242" s="54"/>
     </row>
     <row r="243" spans="6:6" ht="12.75">
-      <c r="F243" s="56"/>
+      <c r="F243" s="54"/>
     </row>
     <row r="244" spans="6:6" ht="12.75">
-      <c r="F244" s="56"/>
+      <c r="F244" s="54"/>
     </row>
     <row r="245" spans="6:6" ht="12.75">
-      <c r="F245" s="56"/>
+      <c r="F245" s="54"/>
     </row>
     <row r="246" spans="6:6" ht="12.75">
-      <c r="F246" s="56"/>
+      <c r="F246" s="54"/>
     </row>
     <row r="247" spans="6:6" ht="12.75">
-      <c r="F247" s="56"/>
+      <c r="F247" s="54"/>
     </row>
     <row r="248" spans="6:6" ht="12.75">
-      <c r="F248" s="56"/>
+      <c r="F248" s="54"/>
     </row>
     <row r="249" spans="6:6" ht="12.75">
-      <c r="F249" s="56"/>
+      <c r="F249" s="54"/>
     </row>
     <row r="250" spans="6:6" ht="12.75">
-      <c r="F250" s="56"/>
+      <c r="F250" s="54"/>
     </row>
     <row r="251" spans="6:6" ht="12.75">
-      <c r="F251" s="56"/>
+      <c r="F251" s="54"/>
     </row>
     <row r="252" spans="6:6" ht="12.75">
-      <c r="F252" s="56"/>
+      <c r="F252" s="54"/>
     </row>
     <row r="253" spans="6:6" ht="12.75">
-      <c r="F253" s="56"/>
+      <c r="F253" s="54"/>
     </row>
     <row r="254" spans="6:6" ht="12.75">
-      <c r="F254" s="56"/>
+      <c r="F254" s="54"/>
     </row>
     <row r="255" spans="6:6" ht="12.75">
-      <c r="F255" s="56"/>
+      <c r="F255" s="54"/>
     </row>
     <row r="256" spans="6:6" ht="12.75">
-      <c r="F256" s="56"/>
+      <c r="F256" s="54"/>
     </row>
     <row r="257" spans="6:6" ht="12.75">
-      <c r="F257" s="56"/>
+      <c r="F257" s="54"/>
     </row>
     <row r="258" spans="6:6" ht="12.75">
-      <c r="F258" s="56"/>
+      <c r="F258" s="54"/>
     </row>
     <row r="259" spans="6:6" ht="12.75">
-      <c r="F259" s="56"/>
+      <c r="F259" s="54"/>
     </row>
     <row r="260" spans="6:6" ht="12.75">
-      <c r="F260" s="56"/>
+      <c r="F260" s="54"/>
     </row>
     <row r="261" spans="6:6" ht="12.75">
-      <c r="F261" s="56"/>
+      <c r="F261" s="54"/>
     </row>
     <row r="262" spans="6:6" ht="12.75">
-      <c r="F262" s="56"/>
+      <c r="F262" s="54"/>
     </row>
     <row r="263" spans="6:6" ht="12.75">
-      <c r="F263" s="56"/>
+      <c r="F263" s="54"/>
     </row>
     <row r="264" spans="6:6" ht="12.75">
-      <c r="F264" s="56"/>
+      <c r="F264" s="54"/>
     </row>
     <row r="265" spans="6:6" ht="12.75">
-      <c r="F265" s="56"/>
+      <c r="F265" s="54"/>
     </row>
     <row r="266" spans="6:6" ht="12.75">
-      <c r="F266" s="56"/>
+      <c r="F266" s="54"/>
     </row>
     <row r="267" spans="6:6" ht="12.75">
-      <c r="F267" s="56"/>
+      <c r="F267" s="54"/>
     </row>
     <row r="268" spans="6:6" ht="12.75">
-      <c r="F268" s="56"/>
+      <c r="F268" s="54"/>
     </row>
     <row r="269" spans="6:6" ht="12.75">
-      <c r="F269" s="56"/>
+      <c r="F269" s="54"/>
     </row>
     <row r="270" spans="6:6" ht="12.75">
-      <c r="F270" s="56"/>
+      <c r="F270" s="54"/>
     </row>
     <row r="271" spans="6:6" ht="12.75">
-      <c r="F271" s="56"/>
+      <c r="F271" s="54"/>
     </row>
     <row r="272" spans="6:6" ht="12.75">
-      <c r="F272" s="56"/>
+      <c r="F272" s="54"/>
     </row>
     <row r="273" spans="6:6" ht="12.75">
-      <c r="F273" s="56"/>
+      <c r="F273" s="54"/>
     </row>
     <row r="274" spans="6:6" ht="12.75">
-      <c r="F274" s="56"/>
+      <c r="F274" s="54"/>
     </row>
     <row r="275" spans="6:6" ht="12.75">
-      <c r="F275" s="56"/>
+      <c r="F275" s="54"/>
     </row>
     <row r="276" spans="6:6" ht="12.75">
-      <c r="F276" s="56"/>
+      <c r="F276" s="54"/>
     </row>
     <row r="277" spans="6:6" ht="12.75">
-      <c r="F277" s="56"/>
+      <c r="F277" s="54"/>
     </row>
     <row r="278" spans="6:6" ht="12.75">
-      <c r="F278" s="56"/>
+      <c r="F278" s="54"/>
     </row>
     <row r="279" spans="6:6" ht="12.75">
-      <c r="F279" s="56"/>
+      <c r="F279" s="54"/>
     </row>
     <row r="280" spans="6:6" ht="12.75">
-      <c r="F280" s="56"/>
+      <c r="F280" s="54"/>
     </row>
     <row r="281" spans="6:6" ht="12.75">
-      <c r="F281" s="56"/>
+      <c r="F281" s="54"/>
     </row>
     <row r="282" spans="6:6" ht="12.75">
-      <c r="F282" s="56"/>
+      <c r="F282" s="54"/>
     </row>
     <row r="283" spans="6:6" ht="12.75">
-      <c r="F283" s="56"/>
+      <c r="F283" s="54"/>
     </row>
     <row r="284" spans="6:6" ht="12.75">
-      <c r="F284" s="56"/>
+      <c r="F284" s="54"/>
     </row>
     <row r="285" spans="6:6" ht="12.75">
-      <c r="F285" s="56"/>
+      <c r="F285" s="54"/>
     </row>
     <row r="286" spans="6:6" ht="12.75">
-      <c r="F286" s="56"/>
+      <c r="F286" s="54"/>
     </row>
     <row r="287" spans="6:6" ht="12.75">
-      <c r="F287" s="56"/>
+      <c r="F287" s="54"/>
     </row>
     <row r="288" spans="6:6" ht="12.75">
-      <c r="F288" s="56"/>
+      <c r="F288" s="54"/>
     </row>
     <row r="289" spans="6:6" ht="12.75">
-      <c r="F289" s="56"/>
+      <c r="F289" s="54"/>
     </row>
     <row r="290" spans="6:6" ht="12.75">
-      <c r="F290" s="56"/>
+      <c r="F290" s="54"/>
     </row>
     <row r="291" spans="6:6" ht="12.75">
-      <c r="F291" s="56"/>
+      <c r="F291" s="54"/>
     </row>
     <row r="292" spans="6:6" ht="12.75">
-      <c r="F292" s="56"/>
+      <c r="F292" s="54"/>
     </row>
     <row r="293" spans="6:6" ht="12.75">
-      <c r="F293" s="56"/>
+      <c r="F293" s="54"/>
     </row>
     <row r="294" spans="6:6" ht="12.75">
-      <c r="F294" s="56"/>
+      <c r="F294" s="54"/>
     </row>
     <row r="295" spans="6:6" ht="12.75">
-      <c r="F295" s="56"/>
+      <c r="F295" s="54"/>
     </row>
     <row r="296" spans="6:6" ht="12.75">
-      <c r="F296" s="56"/>
+      <c r="F296" s="54"/>
     </row>
     <row r="297" spans="6:6" ht="12.75">
-      <c r="F297" s="56"/>
+      <c r="F297" s="54"/>
     </row>
     <row r="298" spans="6:6" ht="12.75">
-      <c r="F298" s="56"/>
+      <c r="F298" s="54"/>
     </row>
     <row r="299" spans="6:6" ht="12.75">
-      <c r="F299" s="56"/>
+      <c r="F299" s="54"/>
     </row>
     <row r="300" spans="6:6" ht="12.75">
-      <c r="F300" s="56"/>
+      <c r="F300" s="54"/>
     </row>
     <row r="301" spans="6:6" ht="12.75">
-      <c r="F301" s="56"/>
+      <c r="F301" s="54"/>
     </row>
     <row r="302" spans="6:6" ht="12.75">
-      <c r="F302" s="56"/>
+      <c r="F302" s="54"/>
     </row>
     <row r="303" spans="6:6" ht="12.75">
-      <c r="F303" s="56"/>
+      <c r="F303" s="54"/>
     </row>
     <row r="304" spans="6:6" ht="12.75">
-      <c r="F304" s="56"/>
+      <c r="F304" s="54"/>
     </row>
     <row r="305" spans="6:6" ht="12.75">
-      <c r="F305" s="56"/>
+      <c r="F305" s="54"/>
     </row>
     <row r="306" spans="6:6" ht="12.75">
-      <c r="F306" s="56"/>
+      <c r="F306" s="54"/>
     </row>
     <row r="307" spans="6:6" ht="12.75">
-      <c r="F307" s="56"/>
+      <c r="F307" s="54"/>
     </row>
     <row r="308" spans="6:6" ht="12.75">
-      <c r="F308" s="56"/>
+      <c r="F308" s="54"/>
     </row>
     <row r="309" spans="6:6" ht="12.75">
-      <c r="F309" s="56"/>
+      <c r="F309" s="54"/>
     </row>
     <row r="310" spans="6:6" ht="12.75">
-      <c r="F310" s="56"/>
+      <c r="F310" s="54"/>
     </row>
     <row r="311" spans="6:6" ht="12.75">
-      <c r="F311" s="56"/>
+      <c r="F311" s="54"/>
     </row>
     <row r="312" spans="6:6" ht="12.75">
-      <c r="F312" s="56"/>
+      <c r="F312" s="54"/>
     </row>
     <row r="313" spans="6:6" ht="12.75">
-      <c r="F313" s="56"/>
+      <c r="F313" s="54"/>
     </row>
     <row r="314" spans="6:6" ht="12.75">
-      <c r="F314" s="56"/>
+      <c r="F314" s="54"/>
     </row>
     <row r="315" spans="6:6" ht="12.75">
-      <c r="F315" s="56"/>
+      <c r="F315" s="54"/>
     </row>
     <row r="316" spans="6:6" ht="12.75">
-      <c r="F316" s="56"/>
+      <c r="F316" s="54"/>
     </row>
     <row r="317" spans="6:6" ht="12.75">
-      <c r="F317" s="56"/>
+      <c r="F317" s="54"/>
     </row>
     <row r="318" spans="6:6" ht="12.75">
-      <c r="F318" s="56"/>
+      <c r="F318" s="54"/>
     </row>
     <row r="319" spans="6:6" ht="12.75">
-      <c r="F319" s="56"/>
+      <c r="F319" s="54"/>
     </row>
     <row r="320" spans="6:6" ht="12.75">
-      <c r="F320" s="56"/>
+      <c r="F320" s="54"/>
     </row>
     <row r="321" spans="6:6" ht="12.75">
-      <c r="F321" s="56"/>
+      <c r="F321" s="54"/>
     </row>
     <row r="322" spans="6:6" ht="12.75">
-      <c r="F322" s="56"/>
+      <c r="F322" s="54"/>
     </row>
     <row r="323" spans="6:6" ht="12.75">
-      <c r="F323" s="56"/>
+      <c r="F323" s="54"/>
     </row>
     <row r="324" spans="6:6" ht="12.75">
-      <c r="F324" s="56"/>
+      <c r="F324" s="54"/>
     </row>
     <row r="325" spans="6:6" ht="12.75">
-      <c r="F325" s="56"/>
+      <c r="F325" s="54"/>
     </row>
     <row r="326" spans="6:6" ht="12.75">
-      <c r="F326" s="56"/>
+      <c r="F326" s="54"/>
     </row>
     <row r="327" spans="6:6" ht="12.75">
-      <c r="F327" s="56"/>
+      <c r="F327" s="54"/>
     </row>
     <row r="328" spans="6:6" ht="12.75">
-      <c r="F328" s="56"/>
+      <c r="F328" s="54"/>
     </row>
     <row r="329" spans="6:6" ht="12.75">
-      <c r="F329" s="56"/>
+      <c r="F329" s="54"/>
     </row>
     <row r="330" spans="6:6" ht="12.75">
-      <c r="F330" s="56"/>
+      <c r="F330" s="54"/>
     </row>
     <row r="331" spans="6:6" ht="12.75">
-      <c r="F331" s="56"/>
+      <c r="F331" s="54"/>
     </row>
     <row r="332" spans="6:6" ht="12.75">
-      <c r="F332" s="56"/>
+      <c r="F332" s="54"/>
     </row>
     <row r="333" spans="6:6" ht="12.75">
-      <c r="F333" s="56"/>
+      <c r="F333" s="54"/>
     </row>
     <row r="334" spans="6:6" ht="12.75">
-      <c r="F334" s="56"/>
+      <c r="F334" s="54"/>
     </row>
     <row r="335" spans="6:6" ht="12.75">
-      <c r="F335" s="56"/>
+      <c r="F335" s="54"/>
     </row>
     <row r="336" spans="6:6" ht="12.75">
-      <c r="F336" s="56"/>
+      <c r="F336" s="54"/>
     </row>
     <row r="337" spans="6:6" ht="12.75">
-      <c r="F337" s="56"/>
+      <c r="F337" s="54"/>
     </row>
     <row r="338" spans="6:6" ht="12.75">
-      <c r="F338" s="56"/>
+      <c r="F338" s="54"/>
     </row>
     <row r="339" spans="6:6" ht="12.75">
-      <c r="F339" s="56"/>
+      <c r="F339" s="54"/>
     </row>
     <row r="340" spans="6:6" ht="12.75">
-      <c r="F340" s="56"/>
+      <c r="F340" s="54"/>
     </row>
     <row r="341" spans="6:6" ht="12.75">
-      <c r="F341" s="56"/>
+      <c r="F341" s="54"/>
     </row>
     <row r="342" spans="6:6" ht="12.75">
-      <c r="F342" s="56"/>
+      <c r="F342" s="54"/>
     </row>
     <row r="343" spans="6:6" ht="12.75">
-      <c r="F343" s="56"/>
+      <c r="F343" s="54"/>
     </row>
     <row r="344" spans="6:6" ht="12.75">
-      <c r="F344" s="56"/>
+      <c r="F344" s="54"/>
     </row>
     <row r="345" spans="6:6" ht="12.75">
-      <c r="F345" s="56"/>
+      <c r="F345" s="54"/>
     </row>
     <row r="346" spans="6:6" ht="12.75">
-      <c r="F346" s="56"/>
+      <c r="F346" s="54"/>
     </row>
     <row r="347" spans="6:6" ht="12.75">
-      <c r="F347" s="56"/>
+      <c r="F347" s="54"/>
     </row>
     <row r="348" spans="6:6" ht="12.75">
-      <c r="F348" s="56"/>
+      <c r="F348" s="54"/>
     </row>
     <row r="349" spans="6:6" ht="12.75">
-      <c r="F349" s="56"/>
+      <c r="F349" s="54"/>
     </row>
     <row r="350" spans="6:6" ht="12.75">
-      <c r="F350" s="56"/>
+      <c r="F350" s="54"/>
     </row>
     <row r="351" spans="6:6" ht="12.75">
-      <c r="F351" s="56"/>
+      <c r="F351" s="54"/>
     </row>
     <row r="352" spans="6:6" ht="12.75">
-      <c r="F352" s="56"/>
+      <c r="F352" s="54"/>
     </row>
     <row r="353" spans="6:6" ht="12.75">
-      <c r="F353" s="56"/>
+      <c r="F353" s="54"/>
     </row>
     <row r="354" spans="6:6" ht="12.75">
-      <c r="F354" s="56"/>
+      <c r="F354" s="54"/>
     </row>
     <row r="355" spans="6:6" ht="12.75">
-      <c r="F355" s="56"/>
+      <c r="F355" s="54"/>
     </row>
     <row r="356" spans="6:6" ht="12.75">
-      <c r="F356" s="56"/>
+      <c r="F356" s="54"/>
     </row>
     <row r="357" spans="6:6" ht="12.75">
-      <c r="F357" s="56"/>
+      <c r="F357" s="54"/>
     </row>
     <row r="358" spans="6:6" ht="12.75">
-      <c r="F358" s="56"/>
+      <c r="F358" s="54"/>
     </row>
     <row r="359" spans="6:6" ht="12.75">
-      <c r="F359" s="56"/>
+      <c r="F359" s="54"/>
     </row>
     <row r="360" spans="6:6" ht="12.75">
-      <c r="F360" s="56"/>
+      <c r="F360" s="54"/>
     </row>
     <row r="361" spans="6:6" ht="12.75">
-      <c r="F361" s="56"/>
+      <c r="F361" s="54"/>
     </row>
     <row r="362" spans="6:6" ht="12.75">
-      <c r="F362" s="56"/>
+      <c r="F362" s="54"/>
     </row>
     <row r="363" spans="6:6" ht="12.75">
-      <c r="F363" s="56"/>
+      <c r="F363" s="54"/>
     </row>
     <row r="364" spans="6:6" ht="12.75">
-      <c r="F364" s="56"/>
+      <c r="F364" s="54"/>
     </row>
     <row r="365" spans="6:6" ht="12.75">
-      <c r="F365" s="56"/>
+      <c r="F365" s="54"/>
     </row>
     <row r="366" spans="6:6" ht="12.75">
-      <c r="F366" s="56"/>
+      <c r="F366" s="54"/>
     </row>
     <row r="367" spans="6:6" ht="12.75">
-      <c r="F367" s="56"/>
+      <c r="F367" s="54"/>
     </row>
     <row r="368" spans="6:6" ht="12.75">
-      <c r="F368" s="56"/>
+      <c r="F368" s="54"/>
     </row>
     <row r="369" spans="6:6" ht="12.75">
-      <c r="F369" s="56"/>
+      <c r="F369" s="54"/>
     </row>
     <row r="370" spans="6:6" ht="12.75">
-      <c r="F370" s="56"/>
+      <c r="F370" s="54"/>
     </row>
     <row r="371" spans="6:6" ht="12.75">
-      <c r="F371" s="56"/>
+      <c r="F371" s="54"/>
     </row>
     <row r="372" spans="6:6" ht="12.75">
-      <c r="F372" s="56"/>
+      <c r="F372" s="54"/>
     </row>
     <row r="373" spans="6:6" ht="12.75">
-      <c r="F373" s="56"/>
+      <c r="F373" s="54"/>
     </row>
     <row r="374" spans="6:6" ht="12.75">
-      <c r="F374" s="56"/>
+      <c r="F374" s="54"/>
     </row>
     <row r="375" spans="6:6" ht="12.75">
-      <c r="F375" s="56"/>
+      <c r="F375" s="54"/>
     </row>
     <row r="376" spans="6:6" ht="12.75">
-      <c r="F376" s="56"/>
+      <c r="F376" s="54"/>
     </row>
     <row r="377" spans="6:6" ht="12.75">
-      <c r="F377" s="56"/>
+      <c r="F377" s="54"/>
     </row>
     <row r="378" spans="6:6" ht="12.75">
-      <c r="F378" s="56"/>
+      <c r="F378" s="54"/>
     </row>
     <row r="379" spans="6:6" ht="12.75">
-      <c r="F379" s="56"/>
+      <c r="F379" s="54"/>
     </row>
     <row r="380" spans="6:6" ht="12.75">
-      <c r="F380" s="56"/>
+      <c r="F380" s="54"/>
     </row>
     <row r="381" spans="6:6" ht="12.75">
-      <c r="F381" s="56"/>
+      <c r="F381" s="54"/>
     </row>
     <row r="382" spans="6:6" ht="12.75">
-      <c r="F382" s="56"/>
+      <c r="F382" s="54"/>
     </row>
     <row r="383" spans="6:6" ht="12.75">
-      <c r="F383" s="56"/>
+      <c r="F383" s="54"/>
     </row>
     <row r="384" spans="6:6" ht="12.75">
-      <c r="F384" s="56"/>
+      <c r="F384" s="54"/>
     </row>
     <row r="385" spans="6:6" ht="12.75">
-      <c r="F385" s="56"/>
+      <c r="F385" s="54"/>
     </row>
     <row r="386" spans="6:6" ht="12.75">
-      <c r="F386" s="56"/>
+      <c r="F386" s="54"/>
     </row>
     <row r="387" spans="6:6" ht="12.75">
-      <c r="F387" s="56"/>
+      <c r="F387" s="54"/>
     </row>
     <row r="388" spans="6:6" ht="12.75">
-      <c r="F388" s="56"/>
+      <c r="F388" s="54"/>
     </row>
     <row r="389" spans="6:6" ht="12.75">
-      <c r="F389" s="56"/>
+      <c r="F389" s="54"/>
     </row>
     <row r="390" spans="6:6" ht="12.75">
-      <c r="F390" s="56"/>
+      <c r="F390" s="54"/>
     </row>
     <row r="391" spans="6:6" ht="12.75">
-      <c r="F391" s="56"/>
+      <c r="F391" s="54"/>
     </row>
     <row r="392" spans="6:6" ht="12.75">
-      <c r="F392" s="56"/>
+      <c r="F392" s="54"/>
     </row>
     <row r="393" spans="6:6" ht="12.75">
-      <c r="F393" s="56"/>
+      <c r="F393" s="54"/>
     </row>
     <row r="394" spans="6:6" ht="12.75">
-      <c r="F394" s="56"/>
+      <c r="F394" s="54"/>
     </row>
     <row r="395" spans="6:6" ht="12.75">
-      <c r="F395" s="56"/>
+      <c r="F395" s="54"/>
     </row>
     <row r="396" spans="6:6" ht="12.75">
-      <c r="F396" s="56"/>
+      <c r="F396" s="54"/>
     </row>
     <row r="397" spans="6:6" ht="12.75">
-      <c r="F397" s="56"/>
+      <c r="F397" s="54"/>
     </row>
     <row r="398" spans="6:6" ht="12.75">
-      <c r="F398" s="56"/>
+      <c r="F398" s="54"/>
     </row>
     <row r="399" spans="6:6" ht="12.75">
-      <c r="F399" s="56"/>
+      <c r="F399" s="54"/>
     </row>
     <row r="400" spans="6:6" ht="12.75">
-      <c r="F400" s="56"/>
+      <c r="F400" s="54"/>
     </row>
     <row r="401" spans="6:6" ht="12.75">
-      <c r="F401" s="56"/>
+      <c r="F401" s="54"/>
     </row>
     <row r="402" spans="6:6" ht="12.75">
-      <c r="F402" s="56"/>
+      <c r="F402" s="54"/>
     </row>
     <row r="403" spans="6:6" ht="12.75">
-      <c r="F403" s="56"/>
+      <c r="F403" s="54"/>
     </row>
     <row r="404" spans="6:6" ht="12.75">
-      <c r="F404" s="56"/>
+      <c r="F404" s="54"/>
     </row>
     <row r="405" spans="6:6" ht="12.75">
-      <c r="F405" s="56"/>
+      <c r="F405" s="54"/>
     </row>
     <row r="406" spans="6:6" ht="12.75">
-      <c r="F406" s="56"/>
+      <c r="F406" s="54"/>
     </row>
     <row r="407" spans="6:6" ht="12.75">
-      <c r="F407" s="56"/>
+      <c r="F407" s="54"/>
     </row>
     <row r="408" spans="6:6" ht="12.75">
-      <c r="F408" s="56"/>
+      <c r="F408" s="54"/>
     </row>
     <row r="409" spans="6:6" ht="12.75">
-      <c r="F409" s="56"/>
+      <c r="F409" s="54"/>
     </row>
     <row r="410" spans="6:6" ht="12.75">
-      <c r="F410" s="56"/>
+      <c r="F410" s="54"/>
     </row>
     <row r="411" spans="6:6" ht="12.75">
-      <c r="F411" s="56"/>
+      <c r="F411" s="54"/>
     </row>
     <row r="412" spans="6:6" ht="12.75">
-      <c r="F412" s="56"/>
+      <c r="F412" s="54"/>
     </row>
     <row r="413" spans="6:6" ht="12.75">
-      <c r="F413" s="56"/>
+      <c r="F413" s="54"/>
     </row>
     <row r="414" spans="6:6" ht="12.75">
-      <c r="F414" s="56"/>
+      <c r="F414" s="54"/>
     </row>
     <row r="415" spans="6:6" ht="12.75">
-      <c r="F415" s="56"/>
+      <c r="F415" s="54"/>
     </row>
     <row r="416" spans="6:6" ht="12.75">
-      <c r="F416" s="56"/>
+      <c r="F416" s="54"/>
     </row>
     <row r="417" spans="6:6" ht="12.75">
-      <c r="F417" s="56"/>
+      <c r="F417" s="54"/>
     </row>
     <row r="418" spans="6:6" ht="12.75">
-      <c r="F418" s="56"/>
+      <c r="F418" s="54"/>
     </row>
     <row r="419" spans="6:6" ht="12.75">
-      <c r="F419" s="56"/>
+      <c r="F419" s="54"/>
     </row>
     <row r="420" spans="6:6" ht="12.75">
-      <c r="F420" s="56"/>
+      <c r="F420" s="54"/>
     </row>
     <row r="421" spans="6:6" ht="12.75">
-      <c r="F421" s="56"/>
+      <c r="F421" s="54"/>
     </row>
     <row r="422" spans="6:6" ht="12.75">
-      <c r="F422" s="56"/>
+      <c r="F422" s="54"/>
     </row>
     <row r="423" spans="6:6" ht="12.75">
-      <c r="F423" s="56"/>
+      <c r="F423" s="54"/>
     </row>
     <row r="424" spans="6:6" ht="12.75">
-      <c r="F424" s="56"/>
+      <c r="F424" s="54"/>
     </row>
     <row r="425" spans="6:6" ht="12.75">
-      <c r="F425" s="56"/>
+      <c r="F425" s="54"/>
     </row>
     <row r="426" spans="6:6" ht="12.75">
-      <c r="F426" s="56"/>
+      <c r="F426" s="54"/>
     </row>
     <row r="427" spans="6:6" ht="12.75">
-      <c r="F427" s="56"/>
+      <c r="F427" s="54"/>
     </row>
     <row r="428" spans="6:6" ht="12.75">
-      <c r="F428" s="56"/>
+      <c r="F428" s="54"/>
     </row>
     <row r="429" spans="6:6" ht="12.75">
-      <c r="F429" s="56"/>
+      <c r="F429" s="54"/>
     </row>
     <row r="430" spans="6:6" ht="12.75">
-      <c r="F430" s="56"/>
+      <c r="F430" s="54"/>
     </row>
     <row r="431" spans="6:6" ht="12.75">
-      <c r="F431" s="56"/>
+      <c r="F431" s="54"/>
     </row>
     <row r="432" spans="6:6" ht="12.75">
-      <c r="F432" s="56"/>
+      <c r="F432" s="54"/>
     </row>
     <row r="433" spans="6:6" ht="12.75">
-      <c r="F433" s="56"/>
+      <c r="F433" s="54"/>
     </row>
     <row r="434" spans="6:6" ht="12.75">
-      <c r="F434" s="56"/>
+      <c r="F434" s="54"/>
     </row>
     <row r="435" spans="6:6" ht="12.75">
-      <c r="F435" s="56"/>
+      <c r="F435" s="54"/>
     </row>
     <row r="436" spans="6:6" ht="12.75">
-      <c r="F436" s="56"/>
+      <c r="F436" s="54"/>
     </row>
     <row r="437" spans="6:6" ht="12.75">
-      <c r="F437" s="56"/>
+      <c r="F437" s="54"/>
     </row>
     <row r="438" spans="6:6" ht="12.75">
-      <c r="F438" s="56"/>
+      <c r="F438" s="54"/>
     </row>
     <row r="439" spans="6:6" ht="12.75">
-      <c r="F439" s="56"/>
+      <c r="F439" s="54"/>
     </row>
     <row r="440" spans="6:6" ht="12.75">
-      <c r="F440" s="56"/>
+      <c r="F440" s="54"/>
     </row>
     <row r="441" spans="6:6" ht="12.75">
-      <c r="F441" s="56"/>
+      <c r="F441" s="54"/>
     </row>
     <row r="442" spans="6:6" ht="12.75">
-      <c r="F442" s="56"/>
+      <c r="F442" s="54"/>
     </row>
     <row r="443" spans="6:6" ht="12.75">
-      <c r="F443" s="56"/>
+      <c r="F443" s="54"/>
     </row>
     <row r="444" spans="6:6" ht="12.75">
-      <c r="F444" s="56"/>
+      <c r="F444" s="54"/>
     </row>
     <row r="445" spans="6:6" ht="12.75">
-      <c r="F445" s="56"/>
+      <c r="F445" s="54"/>
     </row>
     <row r="446" spans="6:6" ht="12.75">
-      <c r="F446" s="56"/>
+      <c r="F446" s="54"/>
     </row>
     <row r="447" spans="6:6" ht="12.75">
-      <c r="F447" s="56"/>
+      <c r="F447" s="54"/>
     </row>
     <row r="448" spans="6:6" ht="12.75">
-      <c r="F448" s="56"/>
+      <c r="F448" s="54"/>
     </row>
     <row r="449" spans="6:6" ht="12.75">
-      <c r="F449" s="56"/>
+      <c r="F449" s="54"/>
     </row>
     <row r="450" spans="6:6" ht="12.75">
-      <c r="F450" s="56"/>
+      <c r="F450" s="54"/>
     </row>
     <row r="451" spans="6:6" ht="12.75">
-      <c r="F451" s="56"/>
+      <c r="F451" s="54"/>
     </row>
     <row r="452" spans="6:6" ht="12.75">
-      <c r="F452" s="56"/>
+      <c r="F452" s="54"/>
     </row>
     <row r="453" spans="6:6" ht="12.75">
-      <c r="F453" s="56"/>
+      <c r="F453" s="54"/>
     </row>
     <row r="454" spans="6:6" ht="12.75">
-      <c r="F454" s="56"/>
+      <c r="F454" s="54"/>
     </row>
     <row r="455" spans="6:6" ht="12.75">
-      <c r="F455" s="56"/>
+      <c r="F455" s="54"/>
     </row>
     <row r="456" spans="6:6" ht="12.75">
-      <c r="F456" s="56"/>
+      <c r="F456" s="54"/>
     </row>
     <row r="457" spans="6:6" ht="12.75">
-      <c r="F457" s="56"/>
+      <c r="F457" s="54"/>
     </row>
     <row r="458" spans="6:6" ht="12.75">
-      <c r="F458" s="56"/>
+      <c r="F458" s="54"/>
     </row>
     <row r="459" spans="6:6" ht="12.75">
-      <c r="F459" s="56"/>
+      <c r="F459" s="54"/>
     </row>
     <row r="460" spans="6:6" ht="12.75">
-      <c r="F460" s="56"/>
+      <c r="F460" s="54"/>
     </row>
     <row r="461" spans="6:6" ht="12.75">
-      <c r="F461" s="56"/>
+      <c r="F461" s="54"/>
     </row>
     <row r="462" spans="6:6" ht="12.75">
-      <c r="F462" s="56"/>
+      <c r="F462" s="54"/>
     </row>
     <row r="463" spans="6:6" ht="12.75">
-      <c r="F463" s="56"/>
+      <c r="F463" s="54"/>
     </row>
     <row r="464" spans="6:6" ht="12.75">
-      <c r="F464" s="56"/>
+      <c r="F464" s="54"/>
     </row>
     <row r="465" spans="6:6" ht="12.75">
-      <c r="F465" s="56"/>
+      <c r="F465" s="54"/>
     </row>
     <row r="466" spans="6:6" ht="12.75">
-      <c r="F466" s="56"/>
+      <c r="F466" s="54"/>
     </row>
     <row r="467" spans="6:6" ht="12.75">
-      <c r="F467" s="56"/>
+      <c r="F467" s="54"/>
     </row>
     <row r="468" spans="6:6" ht="12.75">
-      <c r="F468" s="56"/>
+      <c r="F468" s="54"/>
     </row>
     <row r="469" spans="6:6" ht="12.75">
-      <c r="F469" s="56"/>
+      <c r="F469" s="54"/>
     </row>
     <row r="470" spans="6:6" ht="12.75">
-      <c r="F470" s="56"/>
+      <c r="F470" s="54"/>
     </row>
     <row r="471" spans="6:6" ht="12.75">
-      <c r="F471" s="56"/>
+      <c r="F471" s="54"/>
     </row>
     <row r="472" spans="6:6" ht="12.75">
-      <c r="F472" s="56"/>
+      <c r="F472" s="54"/>
     </row>
     <row r="473" spans="6:6" ht="12.75">
-      <c r="F473" s="56"/>
+      <c r="F473" s="54"/>
     </row>
     <row r="474" spans="6:6" ht="12.75">
-      <c r="F474" s="56"/>
+      <c r="F474" s="54"/>
     </row>
     <row r="475" spans="6:6" ht="12.75">
-      <c r="F475" s="56"/>
+      <c r="F475" s="54"/>
     </row>
     <row r="476" spans="6:6" ht="12.75">
-      <c r="F476" s="56"/>
+      <c r="F476" s="54"/>
     </row>
     <row r="477" spans="6:6" ht="12.75">
-      <c r="F477" s="56"/>
+      <c r="F477" s="54"/>
     </row>
     <row r="478" spans="6:6" ht="12.75">
-      <c r="F478" s="56"/>
+      <c r="F478" s="54"/>
     </row>
     <row r="479" spans="6:6" ht="12.75">
-      <c r="F479" s="56"/>
+      <c r="F479" s="54"/>
     </row>
     <row r="480" spans="6:6" ht="12.75">
-      <c r="F480" s="56"/>
+      <c r="F480" s="54"/>
     </row>
     <row r="481" spans="6:6" ht="12.75">
-      <c r="F481" s="56"/>
+      <c r="F481" s="54"/>
     </row>
     <row r="482" spans="6:6" ht="12.75">
-      <c r="F482" s="56"/>
+      <c r="F482" s="54"/>
     </row>
     <row r="483" spans="6:6" ht="12.75">
-      <c r="F483" s="56"/>
+      <c r="F483" s="54"/>
     </row>
     <row r="484" spans="6:6" ht="12.75">
-      <c r="F484" s="56"/>
+      <c r="F484" s="54"/>
     </row>
     <row r="485" spans="6:6" ht="12.75">
-      <c r="F485" s="56"/>
+      <c r="F485" s="54"/>
     </row>
     <row r="486" spans="6:6" ht="12.75">
-      <c r="F486" s="56"/>
+      <c r="F486" s="54"/>
     </row>
     <row r="487" spans="6:6" ht="12.75">
-      <c r="F487" s="56"/>
+      <c r="F487" s="54"/>
     </row>
     <row r="488" spans="6:6" ht="12.75">
-      <c r="F488" s="56"/>
+      <c r="F488" s="54"/>
     </row>
     <row r="489" spans="6:6" ht="12.75">
-      <c r="F489" s="56"/>
+      <c r="F489" s="54"/>
     </row>
     <row r="490" spans="6:6" ht="12.75">
-      <c r="F490" s="56"/>
+      <c r="F490" s="54"/>
     </row>
     <row r="491" spans="6:6" ht="12.75">
-      <c r="F491" s="56"/>
+      <c r="F491" s="54"/>
     </row>
     <row r="492" spans="6:6" ht="12.75">
-      <c r="F492" s="56"/>
+      <c r="F492" s="54"/>
     </row>
     <row r="493" spans="6:6" ht="12.75">
-      <c r="F493" s="56"/>
+      <c r="F493" s="54"/>
     </row>
     <row r="494" spans="6:6" ht="12.75">
-      <c r="F494" s="56"/>
+      <c r="F494" s="54"/>
     </row>
     <row r="495" spans="6:6" ht="12.75">
-      <c r="F495" s="56"/>
+      <c r="F495" s="54"/>
     </row>
     <row r="496" spans="6:6" ht="12.75">
-      <c r="F496" s="56"/>
+      <c r="F496" s="54"/>
     </row>
     <row r="497" spans="6:6" ht="12.75">
-      <c r="F497" s="56"/>
+      <c r="F497" s="54"/>
     </row>
     <row r="498" spans="6:6" ht="12.75">
-      <c r="F498" s="56"/>
+      <c r="F498" s="54"/>
     </row>
     <row r="499" spans="6:6" ht="12.75">
-      <c r="F499" s="56"/>
+      <c r="F499" s="54"/>
     </row>
     <row r="500" spans="6:6" ht="12.75">
-      <c r="F500" s="56"/>
+      <c r="F500" s="54"/>
     </row>
     <row r="501" spans="6:6" ht="12.75">
-      <c r="F501" s="56"/>
+      <c r="F501" s="54"/>
     </row>
     <row r="502" spans="6:6" ht="12.75">
-      <c r="F502" s="56"/>
+      <c r="F502" s="54"/>
     </row>
     <row r="503" spans="6:6" ht="12.75">
-      <c r="F503" s="56"/>
+      <c r="F503" s="54"/>
     </row>
     <row r="504" spans="6:6" ht="12.75">
-      <c r="F504" s="56"/>
+      <c r="F504" s="54"/>
     </row>
     <row r="505" spans="6:6" ht="12.75">
-      <c r="F505" s="56"/>
+      <c r="F505" s="54"/>
     </row>
     <row r="506" spans="6:6" ht="12.75">
-      <c r="F506" s="56"/>
+      <c r="F506" s="54"/>
     </row>
     <row r="507" spans="6:6" ht="12.75">
-      <c r="F507" s="56"/>
+      <c r="F507" s="54"/>
     </row>
     <row r="508" spans="6:6" ht="12.75">
-      <c r="F508" s="56"/>
+      <c r="F508" s="54"/>
     </row>
     <row r="509" spans="6:6" ht="12.75">
-      <c r="F509" s="56"/>
+      <c r="F509" s="54"/>
     </row>
     <row r="510" spans="6:6" ht="12.75">
-      <c r="F510" s="56"/>
+      <c r="F510" s="54"/>
     </row>
     <row r="511" spans="6:6" ht="12.75">
-      <c r="F511" s="56"/>
+      <c r="F511" s="54"/>
     </row>
     <row r="512" spans="6:6" ht="12.75">
-      <c r="F512" s="56"/>
+      <c r="F512" s="54"/>
     </row>
     <row r="513" spans="6:6" ht="12.75">
-      <c r="F513" s="56"/>
+      <c r="F513" s="54"/>
     </row>
     <row r="514" spans="6:6" ht="12.75">
-      <c r="F514" s="56"/>
+      <c r="F514" s="54"/>
     </row>
     <row r="515" spans="6:6" ht="12.75">
-      <c r="F515" s="56"/>
+      <c r="F515" s="54"/>
     </row>
     <row r="516" spans="6:6" ht="12.75">
-      <c r="F516" s="56"/>
+      <c r="F516" s="54"/>
     </row>
     <row r="517" spans="6:6" ht="12.75">
-      <c r="F517" s="56"/>
+      <c r="F517" s="54"/>
     </row>
     <row r="518" spans="6:6" ht="12.75">
-      <c r="F518" s="56"/>
+      <c r="F518" s="54"/>
     </row>
     <row r="519" spans="6:6" ht="12.75">
-      <c r="F519" s="56"/>
+      <c r="F519" s="54"/>
     </row>
     <row r="520" spans="6:6" ht="12.75">
-      <c r="F520" s="56"/>
+      <c r="F520" s="54"/>
     </row>
     <row r="521" spans="6:6" ht="12.75">
-      <c r="F521" s="56"/>
+      <c r="F521" s="54"/>
     </row>
     <row r="522" spans="6:6" ht="12.75">
-      <c r="F522" s="56"/>
+      <c r="F522" s="54"/>
     </row>
     <row r="523" spans="6:6" ht="12.75">
-      <c r="F523" s="56"/>
+      <c r="F523" s="54"/>
     </row>
     <row r="524" spans="6:6" ht="12.75">
-      <c r="F524" s="56"/>
+      <c r="F524" s="54"/>
     </row>
     <row r="525" spans="6:6" ht="12.75">
-      <c r="F525" s="56"/>
+      <c r="F525" s="54"/>
     </row>
     <row r="526" spans="6:6" ht="12.75">
-      <c r="F526" s="56"/>
+      <c r="F526" s="54"/>
     </row>
     <row r="527" spans="6:6" ht="12.75">
-      <c r="F527" s="56"/>
+      <c r="F527" s="54"/>
     </row>
     <row r="528" spans="6:6" ht="12.75">
-      <c r="F528" s="56"/>
+      <c r="F528" s="54"/>
     </row>
     <row r="529" spans="6:6" ht="12.75">
-      <c r="F529" s="56"/>
+      <c r="F529" s="54"/>
     </row>
     <row r="530" spans="6:6" ht="12.75">
-      <c r="F530" s="56"/>
+      <c r="F530" s="54"/>
     </row>
     <row r="531" spans="6:6" ht="12.75">
-      <c r="F531" s="56"/>
+      <c r="F531" s="54"/>
     </row>
     <row r="532" spans="6:6" ht="12.75">
-      <c r="F532" s="56"/>
+      <c r="F532" s="54"/>
     </row>
     <row r="533" spans="6:6" ht="12.75">
-      <c r="F533" s="56"/>
+      <c r="F533" s="54"/>
     </row>
     <row r="534" spans="6:6" ht="12.75">
-      <c r="F534" s="56"/>
+      <c r="F534" s="54"/>
     </row>
     <row r="535" spans="6:6" ht="12.75">
-      <c r="F535" s="56"/>
+      <c r="F535" s="54"/>
     </row>
     <row r="536" spans="6:6" ht="12.75">
-      <c r="F536" s="56"/>
+      <c r="F536" s="54"/>
     </row>
     <row r="537" spans="6:6" ht="12.75">
-      <c r="F537" s="56"/>
+      <c r="F537" s="54"/>
     </row>
     <row r="538" spans="6:6" ht="12.75">
-      <c r="F538" s="56"/>
+      <c r="F538" s="54"/>
     </row>
     <row r="539" spans="6:6" ht="12.75">
-      <c r="F539" s="56"/>
+      <c r="F539" s="54"/>
     </row>
     <row r="540" spans="6:6" ht="12.75">
-      <c r="F540" s="56"/>
+      <c r="F540" s="54"/>
     </row>
     <row r="541" spans="6:6" ht="12.75">
-      <c r="F541" s="56"/>
+      <c r="F541" s="54"/>
     </row>
     <row r="542" spans="6:6" ht="12.75">
-      <c r="F542" s="56"/>
+      <c r="F542" s="54"/>
     </row>
     <row r="543" spans="6:6" ht="12.75">
-      <c r="F543" s="56"/>
+      <c r="F543" s="54"/>
     </row>
     <row r="544" spans="6:6" ht="12.75">
-      <c r="F544" s="56"/>
+      <c r="F544" s="54"/>
     </row>
     <row r="545" spans="6:6" ht="12.75">
-      <c r="F545" s="56"/>
+      <c r="F545" s="54"/>
     </row>
     <row r="546" spans="6:6" ht="12.75">
-      <c r="F546" s="56"/>
+      <c r="F546" s="54"/>
     </row>
     <row r="547" spans="6:6" ht="12.75">
-      <c r="F547" s="56"/>
+      <c r="F547" s="54"/>
     </row>
     <row r="548" spans="6:6" ht="12.75">
-      <c r="F548" s="56"/>
+      <c r="F548" s="54"/>
     </row>
     <row r="549" spans="6:6" ht="12.75">
-      <c r="F549" s="56"/>
+      <c r="F549" s="54"/>
     </row>
     <row r="550" spans="6:6" ht="12.75">
-      <c r="F550" s="56"/>
+      <c r="F550" s="54"/>
     </row>
     <row r="551" spans="6:6" ht="12.75">
-      <c r="F551" s="56"/>
+      <c r="F551" s="54"/>
     </row>
     <row r="552" spans="6:6" ht="12.75">
-      <c r="F552" s="56"/>
+      <c r="F552" s="54"/>
     </row>
     <row r="553" spans="6:6" ht="12.75">
-      <c r="F553" s="56"/>
+      <c r="F553" s="54"/>
     </row>
     <row r="554" spans="6:6" ht="12.75">
-      <c r="F554" s="56"/>
+      <c r="F554" s="54"/>
     </row>
     <row r="555" spans="6:6" ht="12.75">
-      <c r="F555" s="56"/>
+      <c r="F555" s="54"/>
     </row>
     <row r="556" spans="6:6" ht="12.75">
-      <c r="F556" s="56"/>
+      <c r="F556" s="54"/>
     </row>
     <row r="557" spans="6:6" ht="12.75">
-      <c r="F557" s="56"/>
+      <c r="F557" s="54"/>
     </row>
     <row r="558" spans="6:6" ht="12.75">
-      <c r="F558" s="56"/>
+      <c r="F558" s="54"/>
     </row>
     <row r="559" spans="6:6" ht="12.75">
-      <c r="F559" s="56"/>
+      <c r="F559" s="54"/>
     </row>
     <row r="560" spans="6:6" ht="12.75">
-      <c r="F560" s="56"/>
+      <c r="F560" s="54"/>
     </row>
     <row r="561" spans="6:6" ht="12.75">
-      <c r="F561" s="56"/>
+      <c r="F561" s="54"/>
     </row>
     <row r="562" spans="6:6" ht="12.75">
-      <c r="F562" s="56"/>
+      <c r="F562" s="54"/>
     </row>
     <row r="563" spans="6:6" ht="12.75">
-      <c r="F563" s="56"/>
+      <c r="F563" s="54"/>
     </row>
     <row r="564" spans="6:6" ht="12.75">
-      <c r="F564" s="56"/>
+      <c r="F564" s="54"/>
     </row>
     <row r="565" spans="6:6" ht="12.75">
-      <c r="F565" s="56"/>
+      <c r="F565" s="54"/>
     </row>
     <row r="566" spans="6:6" ht="12.75">
-      <c r="F566" s="56"/>
+      <c r="F566" s="54"/>
     </row>
     <row r="567" spans="6:6" ht="12.75">
-      <c r="F567" s="56"/>
+      <c r="F567" s="54"/>
     </row>
     <row r="568" spans="6:6" ht="12.75">
-      <c r="F568" s="56"/>
+      <c r="F568" s="54"/>
     </row>
     <row r="569" spans="6:6" ht="12.75">
-      <c r="F569" s="56"/>
+      <c r="F569" s="54"/>
     </row>
     <row r="570" spans="6:6" ht="12.75">
-      <c r="F570" s="56"/>
+      <c r="F570" s="54"/>
     </row>
     <row r="571" spans="6:6" ht="12.75">
-      <c r="F571" s="56"/>
+      <c r="F571" s="54"/>
     </row>
     <row r="572" spans="6:6" ht="12.75">
-      <c r="F572" s="56"/>
+      <c r="F572" s="54"/>
     </row>
     <row r="573" spans="6:6" ht="12.75">
-      <c r="F573" s="56"/>
+      <c r="F573" s="54"/>
     </row>
     <row r="574" spans="6:6" ht="12.75">
-      <c r="F574" s="56"/>
+      <c r="F574" s="54"/>
     </row>
     <row r="575" spans="6:6" ht="12.75">
-      <c r="F575" s="56"/>
+      <c r="F575" s="54"/>
     </row>
     <row r="576" spans="6:6" ht="12.75">
-      <c r="F576" s="56"/>
+      <c r="F576" s="54"/>
     </row>
     <row r="577" spans="6:6" ht="12.75">
-      <c r="F577" s="56"/>
+      <c r="F577" s="54"/>
     </row>
     <row r="578" spans="6:6" ht="12.75">
-      <c r="F578" s="56"/>
+      <c r="F578" s="54"/>
     </row>
     <row r="579" spans="6:6" ht="12.75">
-      <c r="F579" s="56"/>
+      <c r="F579" s="54"/>
     </row>
     <row r="580" spans="6:6" ht="12.75">
-      <c r="F580" s="56"/>
+      <c r="F580" s="54"/>
     </row>
     <row r="581" spans="6:6" ht="12.75">
-      <c r="F581" s="56"/>
+      <c r="F581" s="54"/>
     </row>
     <row r="582" spans="6:6" ht="12.75">
-      <c r="F582" s="56"/>
+      <c r="F582" s="54"/>
     </row>
     <row r="583" spans="6:6" ht="12.75">
-      <c r="F583" s="56"/>
+      <c r="F583" s="54"/>
     </row>
     <row r="584" spans="6:6" ht="12.75">
-      <c r="F584" s="56"/>
+      <c r="F584" s="54"/>
     </row>
     <row r="585" spans="6:6" ht="12.75">
-      <c r="F585" s="56"/>
+      <c r="F585" s="54"/>
     </row>
     <row r="586" spans="6:6" ht="12.75">
-      <c r="F586" s="56"/>
+      <c r="F586" s="54"/>
     </row>
     <row r="587" spans="6:6" ht="12.75">
-      <c r="F587" s="56"/>
+      <c r="F587" s="54"/>
     </row>
     <row r="588" spans="6:6" ht="12.75">
-      <c r="F588" s="56"/>
+      <c r="F588" s="54"/>
     </row>
     <row r="589" spans="6:6" ht="12.75">
-      <c r="F589" s="56"/>
+      <c r="F589" s="54"/>
     </row>
     <row r="590" spans="6:6" ht="12.75">
-      <c r="F590" s="56"/>
+      <c r="F590" s="54"/>
     </row>
     <row r="591" spans="6:6" ht="12.75">
-      <c r="F591" s="56"/>
+      <c r="F591" s="54"/>
     </row>
     <row r="592" spans="6:6" ht="12.75">
-      <c r="F592" s="56"/>
+      <c r="F592" s="54"/>
     </row>
     <row r="593" spans="6:6" ht="12.75">
-      <c r="F593" s="56"/>
+      <c r="F593" s="54"/>
     </row>
     <row r="594" spans="6:6" ht="12.75">
-      <c r="F594" s="56"/>
+      <c r="F594" s="54"/>
     </row>
     <row r="595" spans="6:6" ht="12.75">
-      <c r="F595" s="56"/>
+      <c r="F595" s="54"/>
     </row>
     <row r="596" spans="6:6" ht="12.75">
-      <c r="F596" s="56"/>
+      <c r="F596" s="54"/>
     </row>
     <row r="597" spans="6:6" ht="12.75">
-      <c r="F597" s="56"/>
+      <c r="F597" s="54"/>
     </row>
     <row r="598" spans="6:6" ht="12.75">
-      <c r="F598" s="56"/>
+      <c r="F598" s="54"/>
     </row>
     <row r="599" spans="6:6" ht="12.75">
-      <c r="F599" s="56"/>
+      <c r="F599" s="54"/>
     </row>
     <row r="600" spans="6:6" ht="12.75">
-      <c r="F600" s="56"/>
+      <c r="F600" s="54"/>
     </row>
     <row r="601" spans="6:6" ht="12.75">
-      <c r="F601" s="56"/>
+      <c r="F601" s="54"/>
     </row>
     <row r="602" spans="6:6" ht="12.75">
-      <c r="F602" s="56"/>
+      <c r="F602" s="54"/>
     </row>
     <row r="603" spans="6:6" ht="12.75">
-      <c r="F603" s="56"/>
+      <c r="F603" s="54"/>
     </row>
     <row r="604" spans="6:6" ht="12.75">
-      <c r="F604" s="56"/>
+      <c r="F604" s="54"/>
     </row>
     <row r="605" spans="6:6" ht="12.75">
-      <c r="F605" s="56"/>
+      <c r="F605" s="54"/>
     </row>
     <row r="606" spans="6:6" ht="12.75">
-      <c r="F606" s="56"/>
+      <c r="F606" s="54"/>
     </row>
     <row r="607" spans="6:6" ht="12.75">
-      <c r="F607" s="56"/>
+      <c r="F607" s="54"/>
     </row>
     <row r="608" spans="6:6" ht="12.75">
-      <c r="F608" s="56"/>
+      <c r="F608" s="54"/>
     </row>
     <row r="609" spans="6:6" ht="12.75">
-      <c r="F609" s="56"/>
+      <c r="F609" s="54"/>
     </row>
     <row r="610" spans="6:6" ht="12.75">
-      <c r="F610" s="56"/>
+      <c r="F610" s="54"/>
     </row>
     <row r="611" spans="6:6" ht="12.75">
-      <c r="F611" s="56"/>
+      <c r="F611" s="54"/>
     </row>
     <row r="612" spans="6:6" ht="12.75">
-      <c r="F612" s="56"/>
+      <c r="F612" s="54"/>
     </row>
     <row r="613" spans="6:6" ht="12.75">
-      <c r="F613" s="56"/>
+      <c r="F613" s="54"/>
     </row>
     <row r="614" spans="6:6" ht="12.75">
-      <c r="F614" s="56"/>
+      <c r="F614" s="54"/>
     </row>
     <row r="615" spans="6:6" ht="12.75">
-      <c r="F615" s="56"/>
+      <c r="F615" s="54"/>
     </row>
     <row r="616" spans="6:6" ht="12.75">
-      <c r="F616" s="56"/>
+      <c r="F616" s="54"/>
     </row>
     <row r="617" spans="6:6" ht="12.75">
-      <c r="F617" s="56"/>
+      <c r="F617" s="54"/>
     </row>
     <row r="618" spans="6:6" ht="12.75">
-      <c r="F618" s="56"/>
+      <c r="F618" s="54"/>
     </row>
     <row r="619" spans="6:6" ht="12.75">
-      <c r="F619" s="56"/>
+      <c r="F619" s="54"/>
     </row>
     <row r="620" spans="6:6" ht="12.75">
-      <c r="F620" s="56"/>
+      <c r="F620" s="54"/>
     </row>
     <row r="621" spans="6:6" ht="12.75">
-      <c r="F621" s="56"/>
+      <c r="F621" s="54"/>
     </row>
     <row r="622" spans="6:6" ht="12.75">
-      <c r="F622" s="56"/>
+      <c r="F622" s="54"/>
     </row>
     <row r="623" spans="6:6" ht="12.75">
-      <c r="F623" s="56"/>
+      <c r="F623" s="54"/>
     </row>
     <row r="624" spans="6:6" ht="12.75">
-      <c r="F624" s="56"/>
+      <c r="F624" s="54"/>
     </row>
     <row r="625" spans="6:6" ht="12.75">
-      <c r="F625" s="56"/>
+      <c r="F625" s="54"/>
     </row>
     <row r="626" spans="6:6" ht="12.75">
-      <c r="F626" s="56"/>
+      <c r="F626" s="54"/>
     </row>
     <row r="627" spans="6:6" ht="12.75">
-      <c r="F627" s="56"/>
+      <c r="F627" s="54"/>
     </row>
     <row r="628" spans="6:6" ht="12.75">
-      <c r="F628" s="56"/>
+      <c r="F628" s="54"/>
     </row>
     <row r="629" spans="6:6" ht="12.75">
-      <c r="F629" s="56"/>
+      <c r="F629" s="54"/>
     </row>
     <row r="630" spans="6:6" ht="12.75">
-      <c r="F630" s="56"/>
+      <c r="F630" s="54"/>
     </row>
     <row r="631" spans="6:6" ht="12.75">
-      <c r="F631" s="56"/>
+      <c r="F631" s="54"/>
     </row>
     <row r="632" spans="6:6" ht="12.75">
-      <c r="F632" s="56"/>
+      <c r="F632" s="54"/>
     </row>
     <row r="633" spans="6:6" ht="12.75">
-      <c r="F633" s="56"/>
+      <c r="F633" s="54"/>
     </row>
     <row r="634" spans="6:6" ht="12.75">
-      <c r="F634" s="56"/>
+      <c r="F634" s="54"/>
     </row>
     <row r="635" spans="6:6" ht="12.75">
-      <c r="F635" s="56"/>
+      <c r="F635" s="54"/>
     </row>
     <row r="636" spans="6:6" ht="12.75">
-      <c r="F636" s="56"/>
+      <c r="F636" s="54"/>
     </row>
     <row r="637" spans="6:6" ht="12.75">
-      <c r="F637" s="56"/>
+      <c r="F637" s="54"/>
     </row>
     <row r="638" spans="6:6" ht="12.75">
-      <c r="F638" s="56"/>
+      <c r="F638" s="54"/>
     </row>
     <row r="639" spans="6:6" ht="12.75">
-      <c r="F639" s="56"/>
+      <c r="F639" s="54"/>
     </row>
     <row r="640" spans="6:6" ht="12.75">
-      <c r="F640" s="56"/>
+      <c r="F640" s="54"/>
     </row>
     <row r="641" spans="6:6" ht="12.75">
-      <c r="F641" s="56"/>
+      <c r="F641" s="54"/>
     </row>
     <row r="642" spans="6:6" ht="12.75">
-      <c r="F642" s="56"/>
+      <c r="F642" s="54"/>
     </row>
     <row r="643" spans="6:6" ht="12.75">
-      <c r="F643" s="56"/>
+      <c r="F643" s="54"/>
     </row>
     <row r="644" spans="6:6" ht="12.75">
-      <c r="F644" s="56"/>
+      <c r="F644" s="54"/>
     </row>
     <row r="645" spans="6:6" ht="12.75">
-      <c r="F645" s="56"/>
+      <c r="F645" s="54"/>
     </row>
     <row r="646" spans="6:6" ht="12.75">
-      <c r="F646" s="56"/>
+      <c r="F646" s="54"/>
     </row>
     <row r="647" spans="6:6" ht="12.75">
-      <c r="F647" s="56"/>
+      <c r="F647" s="54"/>
     </row>
     <row r="648" spans="6:6" ht="12.75">
-      <c r="F648" s="56"/>
+      <c r="F648" s="54"/>
     </row>
     <row r="649" spans="6:6" ht="12.75">
-      <c r="F649" s="56"/>
+      <c r="F649" s="54"/>
     </row>
     <row r="650" spans="6:6" ht="12.75">
-      <c r="F650" s="56"/>
+      <c r="F650" s="54"/>
     </row>
     <row r="651" spans="6:6" ht="12.75">
-      <c r="F651" s="56"/>
+      <c r="F651" s="54"/>
     </row>
     <row r="652" spans="6:6" ht="12.75">
-      <c r="F652" s="56"/>
+      <c r="F652" s="54"/>
     </row>
     <row r="653" spans="6:6" ht="12.75">
-      <c r="F653" s="56"/>
+      <c r="F653" s="54"/>
     </row>
     <row r="654" spans="6:6" ht="12.75">
-      <c r="F654" s="56"/>
+      <c r="F654" s="54"/>
     </row>
     <row r="655" spans="6:6" ht="12.75">
-      <c r="F655" s="56"/>
+      <c r="F655" s="54"/>
     </row>
     <row r="656" spans="6:6" ht="12.75">
-      <c r="F656" s="56"/>
+      <c r="F656" s="54"/>
     </row>
     <row r="657" spans="6:6" ht="12.75">
-      <c r="F657" s="56"/>
+      <c r="F657" s="54"/>
     </row>
     <row r="658" spans="6:6" ht="12.75">
-      <c r="F658" s="56"/>
+      <c r="F658" s="54"/>
     </row>
     <row r="659" spans="6:6" ht="12.75">
-      <c r="F659" s="56"/>
+      <c r="F659" s="54"/>
     </row>
     <row r="660" spans="6:6" ht="12.75">
-      <c r="F660" s="56"/>
+      <c r="F660" s="54"/>
     </row>
     <row r="661" spans="6:6" ht="12.75">
-      <c r="F661" s="56"/>
+      <c r="F661" s="54"/>
     </row>
     <row r="662" spans="6:6" ht="12.75">
-      <c r="F662" s="56"/>
+      <c r="F662" s="54"/>
     </row>
     <row r="663" spans="6:6" ht="12.75">
-      <c r="F663" s="56"/>
+      <c r="F663" s="54"/>
     </row>
     <row r="664" spans="6:6" ht="12.75">
-      <c r="F664" s="56"/>
+      <c r="F664" s="54"/>
     </row>
     <row r="665" spans="6:6" ht="12.75">
-      <c r="F665" s="56"/>
+      <c r="F665" s="54"/>
     </row>
     <row r="666" spans="6:6" ht="12.75">
-      <c r="F666" s="56"/>
+      <c r="F666" s="54"/>
     </row>
     <row r="667" spans="6:6" ht="12.75">
-      <c r="F667" s="56"/>
+      <c r="F667" s="54"/>
     </row>
     <row r="668" spans="6:6" ht="12.75">
-      <c r="F668" s="56"/>
+      <c r="F668" s="54"/>
     </row>
     <row r="669" spans="6:6" ht="12.75">
-      <c r="F669" s="56"/>
+      <c r="F669" s="54"/>
     </row>
     <row r="670" spans="6:6" ht="12.75">
-      <c r="F670" s="56"/>
+      <c r="F670" s="54"/>
     </row>
     <row r="671" spans="6:6" ht="12.75">
-      <c r="F671" s="56"/>
+      <c r="F671" s="54"/>
     </row>
     <row r="672" spans="6:6" ht="12.75">
-      <c r="F672" s="56"/>
+      <c r="F672" s="54"/>
     </row>
     <row r="673" spans="6:6" ht="12.75">
-      <c r="F673" s="56"/>
+      <c r="F673" s="54"/>
     </row>
     <row r="674" spans="6:6" ht="12.75">
-      <c r="F674" s="56"/>
+      <c r="F674" s="54"/>
     </row>
     <row r="675" spans="6:6" ht="12.75">
-      <c r="F675" s="56"/>
+      <c r="F675" s="54"/>
     </row>
     <row r="676" spans="6:6" ht="12.75">
-      <c r="F676" s="56"/>
+      <c r="F676" s="54"/>
     </row>
     <row r="677" spans="6:6" ht="12.75">
-      <c r="F677" s="56"/>
+      <c r="F677" s="54"/>
     </row>
     <row r="678" spans="6:6" ht="12.75">
-      <c r="F678" s="56"/>
+      <c r="F678" s="54"/>
     </row>
     <row r="679" spans="6:6" ht="12.75">
-      <c r="F679" s="56"/>
+      <c r="F679" s="54"/>
     </row>
     <row r="680" spans="6:6" ht="12.75">
-      <c r="F680" s="56"/>
+      <c r="F680" s="54"/>
     </row>
     <row r="681" spans="6:6" ht="12.75">
-      <c r="F681" s="56"/>
+      <c r="F681" s="54"/>
     </row>
     <row r="682" spans="6:6" ht="12.75">
-      <c r="F682" s="56"/>
+      <c r="F682" s="54"/>
     </row>
     <row r="683" spans="6:6" ht="12.75">
-      <c r="F683" s="56"/>
+      <c r="F683" s="54"/>
     </row>
     <row r="684" spans="6:6" ht="12.75">
-      <c r="F684" s="56"/>
+      <c r="F684" s="54"/>
     </row>
     <row r="685" spans="6:6" ht="12.75">
-      <c r="F685" s="56"/>
+      <c r="F685" s="54"/>
     </row>
     <row r="686" spans="6:6" ht="12.75">
-      <c r="F686" s="56"/>
+      <c r="F686" s="54"/>
     </row>
     <row r="687" spans="6:6" ht="12.75">
-      <c r="F687" s="56"/>
+      <c r="F687" s="54"/>
     </row>
     <row r="688" spans="6:6" ht="12.75">
-      <c r="F688" s="56"/>
+      <c r="F688" s="54"/>
     </row>
     <row r="689" spans="6:6" ht="12.75">
-      <c r="F689" s="56"/>
+      <c r="F689" s="54"/>
     </row>
     <row r="690" spans="6:6" ht="12.75">
-      <c r="F690" s="56"/>
+      <c r="F690" s="54"/>
     </row>
     <row r="691" spans="6:6" ht="12.75">
-      <c r="F691" s="56"/>
+      <c r="F691" s="54"/>
     </row>
     <row r="692" spans="6:6" ht="12.75">
-      <c r="F692" s="56"/>
+      <c r="F692" s="54"/>
     </row>
     <row r="693" spans="6:6" ht="12.75">
-      <c r="F693" s="56"/>
+      <c r="F693" s="54"/>
     </row>
     <row r="694" spans="6:6" ht="12.75">
-      <c r="F694" s="56"/>
+      <c r="F694" s="54"/>
     </row>
     <row r="695" spans="6:6" ht="12.75">
-      <c r="F695" s="56"/>
+      <c r="F695" s="54"/>
     </row>
     <row r="696" spans="6:6" ht="12.75">
-      <c r="F696" s="56"/>
+      <c r="F696" s="54"/>
     </row>
     <row r="697" spans="6:6" ht="12.75">
-      <c r="F697" s="56"/>
+      <c r="F697" s="54"/>
     </row>
     <row r="698" spans="6:6" ht="12.75">
-      <c r="F698" s="56"/>
+      <c r="F698" s="54"/>
     </row>
     <row r="699" spans="6:6" ht="12.75">
-      <c r="F699" s="56"/>
+      <c r="F699" s="54"/>
     </row>
     <row r="700" spans="6:6" ht="12.75">
-      <c r="F700" s="56"/>
+      <c r="F700" s="54"/>
     </row>
     <row r="701" spans="6:6" ht="12.75">
-      <c r="F701" s="56"/>
+      <c r="F701" s="54"/>
     </row>
     <row r="702" spans="6:6" ht="12.75">
-      <c r="F702" s="56"/>
+      <c r="F702" s="54"/>
     </row>
     <row r="703" spans="6:6" ht="12.75">
-      <c r="F703" s="56"/>
+      <c r="F703" s="54"/>
     </row>
     <row r="704" spans="6:6" ht="12.75">
-      <c r="F704" s="56"/>
+      <c r="F704" s="54"/>
     </row>
     <row r="705" spans="6:6" ht="12.75">
-      <c r="F705" s="56"/>
+      <c r="F705" s="54"/>
     </row>
     <row r="706" spans="6:6" ht="12.75">
-      <c r="F706" s="56"/>
+      <c r="F706" s="54"/>
     </row>
     <row r="707" spans="6:6" ht="12.75">
-      <c r="F707" s="56"/>
+      <c r="F707" s="54"/>
     </row>
     <row r="708" spans="6:6" ht="12.75">
-      <c r="F708" s="56"/>
+      <c r="F708" s="54"/>
     </row>
     <row r="709" spans="6:6" ht="12.75">
-      <c r="F709" s="56"/>
+      <c r="F709" s="54"/>
     </row>
     <row r="710" spans="6:6" ht="12.75">
-      <c r="F710" s="56"/>
+      <c r="F710" s="54"/>
     </row>
     <row r="711" spans="6:6" ht="12.75">
-      <c r="F711" s="56"/>
+      <c r="F711" s="54"/>
     </row>
     <row r="712" spans="6:6" ht="12.75">
-      <c r="F712" s="56"/>
+      <c r="F712" s="54"/>
     </row>
     <row r="713" spans="6:6" ht="12.75">
-      <c r="F713" s="56"/>
+      <c r="F713" s="54"/>
     </row>
     <row r="714" spans="6:6" ht="12.75">
-      <c r="F714" s="56"/>
+      <c r="F714" s="54"/>
     </row>
     <row r="715" spans="6:6" ht="12.75">
-      <c r="F715" s="56"/>
+      <c r="F715" s="54"/>
     </row>
     <row r="716" spans="6:6" ht="12.75">
-      <c r="F716" s="56"/>
+      <c r="F716" s="54"/>
     </row>
     <row r="717" spans="6:6" ht="12.75">
-      <c r="F717" s="56"/>
+      <c r="F717" s="54"/>
     </row>
     <row r="718" spans="6:6" ht="12.75">
-      <c r="F718" s="56"/>
+      <c r="F718" s="54"/>
     </row>
     <row r="719" spans="6:6" ht="12.75">
-      <c r="F719" s="56"/>
+      <c r="F719" s="54"/>
     </row>
     <row r="720" spans="6:6" ht="12.75">
-      <c r="F720" s="56"/>
+      <c r="F720" s="54"/>
     </row>
     <row r="721" spans="6:6" ht="12.75">
-      <c r="F721" s="56"/>
+      <c r="F721" s="54"/>
     </row>
     <row r="722" spans="6:6" ht="12.75">
-      <c r="F722" s="56"/>
+      <c r="F722" s="54"/>
     </row>
     <row r="723" spans="6:6" ht="12.75">
-      <c r="F723" s="56"/>
+      <c r="F723" s="54"/>
     </row>
     <row r="724" spans="6:6" ht="12.75">
-      <c r="F724" s="56"/>
+      <c r="F724" s="54"/>
     </row>
     <row r="725" spans="6:6" ht="12.75">
-      <c r="F725" s="56"/>
+      <c r="F725" s="54"/>
     </row>
     <row r="726" spans="6:6" ht="12.75">
-      <c r="F726" s="56"/>
+      <c r="F726" s="54"/>
     </row>
     <row r="727" spans="6:6" ht="12.75">
-      <c r="F727" s="56"/>
+      <c r="F727" s="54"/>
     </row>
     <row r="728" spans="6:6" ht="12.75">
-      <c r="F728" s="56"/>
+      <c r="F728" s="54"/>
     </row>
     <row r="729" spans="6:6" ht="12.75">
-      <c r="F729" s="56"/>
+      <c r="F729" s="54"/>
     </row>
     <row r="730" spans="6:6" ht="12.75">
-      <c r="F730" s="56"/>
+      <c r="F730" s="54"/>
     </row>
     <row r="731" spans="6:6" ht="12.75">
-      <c r="F731" s="56"/>
+      <c r="F731" s="54"/>
     </row>
     <row r="732" spans="6:6" ht="12.75">
-      <c r="F732" s="56"/>
+      <c r="F732" s="54"/>
     </row>
     <row r="733" spans="6:6" ht="12.75">
-      <c r="F733" s="56"/>
+      <c r="F733" s="54"/>
     </row>
     <row r="734" spans="6:6" ht="12.75">
-      <c r="F734" s="56"/>
+      <c r="F734" s="54"/>
     </row>
     <row r="735" spans="6:6" ht="12.75">
-      <c r="F735" s="56"/>
+      <c r="F735" s="54"/>
     </row>
     <row r="736" spans="6:6" ht="12.75">
-      <c r="F736" s="56"/>
+      <c r="F736" s="54"/>
     </row>
     <row r="737" spans="6:6" ht="12.75">
-      <c r="F737" s="56"/>
+      <c r="F737" s="54"/>
     </row>
     <row r="738" spans="6:6" ht="12.75">
-      <c r="F738" s="56"/>
+      <c r="F738" s="54"/>
     </row>
     <row r="739" spans="6:6" ht="12.75">
-      <c r="F739" s="56"/>
+      <c r="F739" s="54"/>
     </row>
     <row r="740" spans="6:6" ht="12.75">
-      <c r="F740" s="56"/>
+      <c r="F740" s="54"/>
     </row>
     <row r="741" spans="6:6" ht="12.75">
-      <c r="F741" s="56"/>
+      <c r="F741" s="54"/>
     </row>
     <row r="742" spans="6:6" ht="12.75">
-      <c r="F742" s="56"/>
+      <c r="F742" s="54"/>
     </row>
     <row r="743" spans="6:6" ht="12.75">
-      <c r="F743" s="56"/>
+      <c r="F743" s="54"/>
     </row>
     <row r="744" spans="6:6" ht="12.75">
-      <c r="F744" s="56"/>
+      <c r="F744" s="54"/>
     </row>
     <row r="745" spans="6:6" ht="12.75">
-      <c r="F745" s="56"/>
+      <c r="F745" s="54"/>
     </row>
     <row r="746" spans="6:6" ht="12.75">
-      <c r="F746" s="56"/>
+      <c r="F746" s="54"/>
     </row>
     <row r="747" spans="6:6" ht="12.75">
-      <c r="F747" s="56"/>
+      <c r="F747" s="54"/>
     </row>
     <row r="748" spans="6:6" ht="12.75">
-      <c r="F748" s="56"/>
+      <c r="F748" s="54"/>
     </row>
     <row r="749" spans="6:6" ht="12.75">
-      <c r="F749" s="56"/>
+      <c r="F749" s="54"/>
     </row>
     <row r="750" spans="6:6" ht="12.75">
-      <c r="F750" s="56"/>
+      <c r="F750" s="54"/>
     </row>
     <row r="751" spans="6:6" ht="12.75">
-      <c r="F751" s="56"/>
+      <c r="F751" s="54"/>
     </row>
     <row r="752" spans="6:6" ht="12.75">
-      <c r="F752" s="56"/>
+      <c r="F752" s="54"/>
     </row>
     <row r="753" spans="6:6" ht="12.75">
-      <c r="F753" s="56"/>
+      <c r="F753" s="54"/>
     </row>
     <row r="754" spans="6:6" ht="12.75">
-      <c r="F754" s="56"/>
+      <c r="F754" s="54"/>
     </row>
     <row r="755" spans="6:6" ht="12.75">
-      <c r="F755" s="56"/>
+      <c r="F755" s="54"/>
     </row>
     <row r="756" spans="6:6" ht="12.75">
-      <c r="F756" s="56"/>
+      <c r="F756" s="54"/>
     </row>
     <row r="757" spans="6:6" ht="12.75">
-      <c r="F757" s="56"/>
+      <c r="F757" s="54"/>
     </row>
     <row r="758" spans="6:6" ht="12.75">
-      <c r="F758" s="56"/>
+      <c r="F758" s="54"/>
     </row>
     <row r="759" spans="6:6" ht="12.75">
-      <c r="F759" s="56"/>
+      <c r="F759" s="54"/>
     </row>
     <row r="760" spans="6:6" ht="12.75">
-      <c r="F760" s="56"/>
+      <c r="F760" s="54"/>
     </row>
     <row r="761" spans="6:6" ht="12.75">
-      <c r="F761" s="56"/>
+      <c r="F761" s="54"/>
     </row>
     <row r="762" spans="6:6" ht="12.75">
-      <c r="F762" s="56"/>
+      <c r="F762" s="54"/>
     </row>
     <row r="763" spans="6:6" ht="12.75">
-      <c r="F763" s="56"/>
+      <c r="F763" s="54"/>
     </row>
     <row r="764" spans="6:6" ht="12.75">
-      <c r="F764" s="56"/>
+      <c r="F764" s="54"/>
     </row>
     <row r="765" spans="6:6" ht="12.75">
-      <c r="F765" s="56"/>
+      <c r="F765" s="54"/>
     </row>
     <row r="766" spans="6:6" ht="12.75">
-      <c r="F766" s="56"/>
+      <c r="F766" s="54"/>
     </row>
     <row r="767" spans="6:6" ht="12.75">
-      <c r="F767" s="56"/>
+      <c r="F767" s="54"/>
     </row>
     <row r="768" spans="6:6" ht="12.75">
-      <c r="F768" s="56"/>
+      <c r="F768" s="54"/>
     </row>
     <row r="769" spans="6:6" ht="12.75">
-      <c r="F769" s="56"/>
+      <c r="F769" s="54"/>
     </row>
     <row r="770" spans="6:6" ht="12.75">
-      <c r="F770" s="56"/>
+      <c r="F770" s="54"/>
     </row>
     <row r="771" spans="6:6" ht="12.75">
-      <c r="F771" s="56"/>
+      <c r="F771" s="54"/>
     </row>
     <row r="772" spans="6:6" ht="12.75">
-      <c r="F772" s="56"/>
+      <c r="F772" s="54"/>
     </row>
     <row r="773" spans="6:6" ht="12.75">
-      <c r="F773" s="56"/>
+      <c r="F773" s="54"/>
     </row>
     <row r="774" spans="6:6" ht="12.75">
-      <c r="F774" s="56"/>
+      <c r="F774" s="54"/>
     </row>
     <row r="775" spans="6:6" ht="12.75">
-      <c r="F775" s="56"/>
+      <c r="F775" s="54"/>
     </row>
     <row r="776" spans="6:6" ht="12.75">
-      <c r="F776" s="56"/>
+      <c r="F776" s="54"/>
     </row>
     <row r="777" spans="6:6" ht="12.75">
-      <c r="F777" s="56"/>
+      <c r="F777" s="54"/>
     </row>
     <row r="778" spans="6:6" ht="12.75">
-      <c r="F778" s="56"/>
+      <c r="F778" s="54"/>
     </row>
     <row r="779" spans="6:6" ht="12.75">
-      <c r="F779" s="56"/>
+      <c r="F779" s="54"/>
     </row>
     <row r="780" spans="6:6" ht="12.75">
-      <c r="F780" s="56"/>
+      <c r="F780" s="54"/>
     </row>
     <row r="781" spans="6:6" ht="12.75">
-      <c r="F781" s="56"/>
+      <c r="F781" s="54"/>
     </row>
     <row r="782" spans="6:6" ht="12.75">
-      <c r="F782" s="56"/>
+      <c r="F782" s="54"/>
     </row>
     <row r="783" spans="6:6" ht="12.75">
-      <c r="F783" s="56"/>
+      <c r="F783" s="54"/>
     </row>
     <row r="784" spans="6:6" ht="12.75">
-      <c r="F784" s="56"/>
+      <c r="F784" s="54"/>
     </row>
     <row r="785" spans="6:6" ht="12.75">
-      <c r="F785" s="56"/>
+      <c r="F785" s="54"/>
     </row>
     <row r="786" spans="6:6" ht="12.75">
-      <c r="F786" s="56"/>
+      <c r="F786" s="54"/>
     </row>
     <row r="787" spans="6:6" ht="12.75">
-      <c r="F787" s="56"/>
+      <c r="F787" s="54"/>
     </row>
     <row r="788" spans="6:6" ht="12.75">
-      <c r="F788" s="56"/>
+      <c r="F788" s="54"/>
     </row>
     <row r="789" spans="6:6" ht="12.75">
-      <c r="F789" s="56"/>
+      <c r="F789" s="54"/>
     </row>
     <row r="790" spans="6:6" ht="12.75">
-      <c r="F790" s="56"/>
+      <c r="F790" s="54"/>
     </row>
     <row r="791" spans="6:6" ht="12.75">
-      <c r="F791" s="56"/>
+      <c r="F791" s="54"/>
     </row>
     <row r="792" spans="6:6" ht="12.75">
-      <c r="F792" s="56"/>
+      <c r="F792" s="54"/>
     </row>
     <row r="793" spans="6:6" ht="12.75">
-      <c r="F793" s="56"/>
+      <c r="F793" s="54"/>
     </row>
     <row r="794" spans="6:6" ht="12.75">
-      <c r="F794" s="56"/>
+      <c r="F794" s="54"/>
     </row>
     <row r="795" spans="6:6" ht="12.75">
-      <c r="F795" s="56"/>
+      <c r="F795" s="54"/>
     </row>
     <row r="796" spans="6:6" ht="12.75">
-      <c r="F796" s="56"/>
+      <c r="F796" s="54"/>
     </row>
     <row r="797" spans="6:6" ht="12.75">
-      <c r="F797" s="56"/>
+      <c r="F797" s="54"/>
     </row>
     <row r="798" spans="6:6" ht="12.75">
-      <c r="F798" s="56"/>
+      <c r="F798" s="54"/>
     </row>
     <row r="799" spans="6:6" ht="12.75">
-      <c r="F799" s="56"/>
+      <c r="F799" s="54"/>
     </row>
     <row r="800" spans="6:6" ht="12.75">
-      <c r="F800" s="56"/>
+      <c r="F800" s="54"/>
     </row>
     <row r="801" spans="6:6" ht="12.75">
-      <c r="F801" s="56"/>
+      <c r="F801" s="54"/>
     </row>
     <row r="802" spans="6:6" ht="12.75">
-      <c r="F802" s="56"/>
+      <c r="F802" s="54"/>
     </row>
     <row r="803" spans="6:6" ht="12.75">
-      <c r="F803" s="56"/>
+      <c r="F803" s="54"/>
     </row>
     <row r="804" spans="6:6" ht="12.75">
-      <c r="F804" s="56"/>
+      <c r="F804" s="54"/>
     </row>
     <row r="805" spans="6:6" ht="12.75">
-      <c r="F805" s="56"/>
+      <c r="F805" s="54"/>
     </row>
     <row r="806" spans="6:6" ht="12.75">
-      <c r="F806" s="56"/>
+      <c r="F806" s="54"/>
     </row>
     <row r="807" spans="6:6" ht="12.75">
-      <c r="F807" s="56"/>
+      <c r="F807" s="54"/>
     </row>
     <row r="808" spans="6:6" ht="12.75">
-      <c r="F808" s="56"/>
+      <c r="F808" s="54"/>
     </row>
     <row r="809" spans="6:6" ht="12.75">
-      <c r="F809" s="56"/>
+      <c r="F809" s="54"/>
     </row>
     <row r="810" spans="6:6" ht="12.75">
-      <c r="F810" s="56"/>
+      <c r="F810" s="54"/>
     </row>
     <row r="811" spans="6:6" ht="12.75">
-      <c r="F811" s="56"/>
+      <c r="F811" s="54"/>
     </row>
     <row r="812" spans="6:6" ht="12.75">
-      <c r="F812" s="56"/>
+      <c r="F812" s="54"/>
     </row>
     <row r="813" spans="6:6" ht="12.75">
-      <c r="F813" s="56"/>
+      <c r="F813" s="54"/>
     </row>
     <row r="814" spans="6:6" ht="12.75">
-      <c r="F814" s="56"/>
+      <c r="F814" s="54"/>
     </row>
     <row r="815" spans="6:6" ht="12.75">
-      <c r="F815" s="56"/>
+      <c r="F815" s="54"/>
     </row>
     <row r="816" spans="6:6" ht="12.75">
-      <c r="F816" s="56"/>
+      <c r="F816" s="54"/>
     </row>
     <row r="817" spans="6:6" ht="12.75">
-      <c r="F817" s="56"/>
+      <c r="F817" s="54"/>
     </row>
     <row r="818" spans="6:6" ht="12.75">
-      <c r="F818" s="56"/>
+      <c r="F818" s="54"/>
     </row>
     <row r="819" spans="6:6" ht="12.75">
-      <c r="F819" s="56"/>
+      <c r="F819" s="54"/>
+    </row>
+    <row r="820" spans="6:6" ht="12.75">
+      <c r="F820" s="54"/>
+    </row>
+    <row r="821" spans="6:6" ht="12.75">
+      <c r="F821" s="54"/>
+    </row>
+    <row r="822" spans="6:6" ht="12.75">
+      <c r="F822" s="54"/>
+    </row>
+    <row r="823" spans="6:6" ht="12.75">
+      <c r="F823" s="54"/>
+    </row>
+    <row r="824" spans="6:6" ht="12.75">
+      <c r="F824" s="54"/>
+    </row>
+    <row r="825" spans="6:6" ht="12.75">
+      <c r="F825" s="54"/>
+    </row>
+    <row r="826" spans="6:6" ht="12.75">
+      <c r="F826" s="54"/>
+    </row>
+    <row r="827" spans="6:6" ht="12.75">
+      <c r="F827" s="54"/>
+    </row>
+    <row r="828" spans="6:6" ht="12.75">
+      <c r="F828" s="54"/>
+    </row>
+    <row r="829" spans="6:6" ht="12.75">
+      <c r="F829" s="54"/>
+    </row>
+    <row r="830" spans="6:6" ht="12.75">
+      <c r="F830" s="54"/>
+    </row>
+    <row r="831" spans="6:6" ht="12.75">
+      <c r="F831" s="54"/>
+    </row>
+    <row r="832" spans="6:6" ht="12.75">
+      <c r="F832" s="54"/>
+    </row>
+    <row r="833" spans="6:6" ht="12.75">
+      <c r="F833" s="54"/>
+    </row>
+    <row r="834" spans="6:6" ht="12.75">
+      <c r="F834" s="54"/>
+    </row>
+    <row r="835" spans="6:6" ht="12.75">
+      <c r="F835" s="54"/>
+    </row>
+    <row r="836" spans="6:6" ht="12.75">
+      <c r="F836" s="54"/>
+    </row>
+    <row r="837" spans="6:6" ht="12.75">
+      <c r="F837" s="54"/>
+    </row>
+    <row r="838" spans="6:6" ht="12.75">
+      <c r="F838" s="54"/>
+    </row>
+    <row r="839" spans="6:6" ht="12.75">
+      <c r="F839" s="54"/>
+    </row>
+    <row r="840" spans="6:6" ht="12.75">
+      <c r="F840" s="54"/>
+    </row>
+    <row r="841" spans="6:6" ht="12.75">
+      <c r="F841" s="54"/>
+    </row>
+    <row r="842" spans="6:6" ht="12.75">
+      <c r="F842" s="54"/>
+    </row>
+    <row r="843" spans="6:6" ht="12.75">
+      <c r="F843" s="54"/>
+    </row>
+    <row r="844" spans="6:6" ht="12.75">
+      <c r="F844" s="54"/>
+    </row>
+    <row r="845" spans="6:6" ht="12.75">
+      <c r="F845" s="54"/>
+    </row>
+    <row r="846" spans="6:6" ht="12.75">
+      <c r="F846" s="54"/>
+    </row>
+    <row r="847" spans="6:6" ht="12.75">
+      <c r="F847" s="54"/>
+    </row>
+    <row r="848" spans="6:6" ht="12.75">
+      <c r="F848" s="54"/>
+    </row>
+    <row r="849" spans="6:6" ht="12.75">
+      <c r="F849" s="54"/>
+    </row>
+    <row r="850" spans="6:6" ht="12.75">
+      <c r="F850" s="54"/>
+    </row>
+    <row r="851" spans="6:6" ht="12.75">
+      <c r="F851" s="54"/>
+    </row>
+    <row r="852" spans="6:6" ht="12.75">
+      <c r="F852" s="54"/>
+    </row>
+    <row r="853" spans="6:6" ht="12.75">
+      <c r="F853" s="54"/>
+    </row>
+    <row r="854" spans="6:6" ht="12.75">
+      <c r="F854" s="54"/>
+    </row>
+    <row r="855" spans="6:6" ht="12.75">
+      <c r="F855" s="54"/>
+    </row>
+    <row r="856" spans="6:6" ht="12.75">
+      <c r="F856" s="54"/>
+    </row>
+    <row r="857" spans="6:6" ht="12.75">
+      <c r="F857" s="54"/>
+    </row>
+    <row r="858" spans="6:6" ht="12.75">
+      <c r="F858" s="54"/>
+    </row>
+    <row r="859" spans="6:6" ht="12.75">
+      <c r="F859" s="54"/>
+    </row>
+    <row r="860" spans="6:6" ht="12.75">
+      <c r="F860" s="54"/>
+    </row>
+    <row r="861" spans="6:6" ht="12.75">
+      <c r="F861" s="54"/>
+    </row>
+    <row r="862" spans="6:6" ht="12.75">
+      <c r="F862" s="54"/>
+    </row>
+    <row r="863" spans="6:6" ht="12.75">
+      <c r="F863" s="54"/>
+    </row>
+    <row r="864" spans="6:6" ht="12.75">
+      <c r="F864" s="54"/>
+    </row>
+    <row r="865" spans="6:6" ht="12.75">
+      <c r="F865" s="54"/>
+    </row>
+    <row r="866" spans="6:6" ht="12.75">
+      <c r="F866" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6285,8 +8474,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C58" xr:uid="{E52B1908-56F0-494E-B59D-EEDF4D6F77A1}">
-      <formula1>$A$75:$A$78</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C105 C3:C18" xr:uid="{E52B1908-56F0-494E-B59D-EEDF4D6F77A1}">
+      <formula1>$A$122:$A$125</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
